--- a/BackTest/2020-01-15 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-15 BackTest LAMB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1341,6 +1371,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1384,6 +1415,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1427,6 +1459,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1468,6 +1501,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1511,6 +1545,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1554,6 +1589,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1597,6 +1633,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1638,6 +1675,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1679,6 +1717,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1720,6 +1759,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1761,6 +1801,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1802,6 +1843,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1843,6 +1885,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1884,6 +1927,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1925,6 +1969,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1966,6 +2011,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2007,6 +2053,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2048,6 +2095,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2089,6 +2137,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2130,6 +2179,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2171,6 +2221,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2212,6 +2263,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2253,6 +2305,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2294,6 +2347,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2335,6 +2389,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2376,6 +2431,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2403,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
@@ -2411,11 +2467,14 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>1.007637179913535</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.018754186202277</v>
       </c>
     </row>
     <row r="54">
@@ -2447,17 +2506,12 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2488,17 +2542,12 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2529,17 +2578,12 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2570,17 +2614,12 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2611,17 +2650,12 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2652,17 +2686,12 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2693,17 +2722,12 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2734,17 +2758,12 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2775,17 +2794,12 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2816,17 +2830,12 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2857,17 +2866,12 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2898,17 +2902,12 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2939,17 +2938,12 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2980,17 +2974,12 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3021,17 +3010,12 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3062,17 +3046,12 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3103,17 +3082,12 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3144,17 +3118,12 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3185,17 +3154,12 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3226,17 +3190,12 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3267,17 +3226,12 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3308,17 +3262,12 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3349,17 +3298,12 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3390,17 +3334,12 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3431,17 +3370,12 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3469,20 +3403,15 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3513,17 +3442,12 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3551,20 +3475,15 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3595,17 +3514,12 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3633,20 +3547,15 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3677,17 +3586,12 @@
         <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>1.013955769870303</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3723,6 +3627,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3758,6 +3663,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3785,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3793,6 +3699,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3828,6 +3735,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3855,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3863,6 +3771,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3890,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3898,6 +3807,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3933,6 +3843,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3968,6 +3879,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4003,6 +3915,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4030,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4038,6 +3951,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4065,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4073,6 +3987,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4100,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4108,6 +4023,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4143,6 +4059,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4178,6 +4095,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4213,6 +4131,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4240,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4248,6 +4167,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4275,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4283,6 +4203,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4318,6 +4239,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4353,6 +4275,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4388,6 +4311,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4423,6 +4347,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4458,6 +4383,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4493,6 +4419,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4528,6 +4455,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4563,6 +4491,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4598,6 +4527,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4625,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4633,6 +4563,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4668,6 +4599,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4695,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4703,6 +4635,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4738,6 +4671,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4765,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4773,6 +4707,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4800,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4808,6 +4743,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4835,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4843,6 +4779,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4870,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4878,6 +4815,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4905,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4913,6 +4851,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4948,6 +4887,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4983,6 +4923,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5018,6 +4959,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5053,6 +4995,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5088,6 +5031,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5123,6 +5067,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5158,6 +5103,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5193,6 +5139,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5228,6 +5175,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-15 BackTest LAMB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N128"/>
+  <dimension ref="A1:N157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30.24</v>
+        <v>29.93</v>
       </c>
       <c r="C2" t="n">
-        <v>30.28</v>
+        <v>29.9</v>
       </c>
       <c r="D2" t="n">
-        <v>30.28</v>
+        <v>29.93</v>
       </c>
       <c r="E2" t="n">
-        <v>30.24</v>
+        <v>29.9</v>
       </c>
       <c r="F2" t="n">
-        <v>39800</v>
+        <v>200</v>
       </c>
       <c r="G2" t="n">
-        <v>201537.3076517612</v>
+        <v>48740.36525176118</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30.06</v>
+        <v>29.87</v>
       </c>
       <c r="C3" t="n">
-        <v>30.06</v>
+        <v>29.87</v>
       </c>
       <c r="D3" t="n">
-        <v>30.06</v>
+        <v>29.87</v>
       </c>
       <c r="E3" t="n">
-        <v>30.06</v>
+        <v>29.87</v>
       </c>
       <c r="F3" t="n">
-        <v>10091.9561</v>
+        <v>200</v>
       </c>
       <c r="G3" t="n">
-        <v>191445.3515517612</v>
+        <v>48540.36525176118</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>29.9</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,22 +514,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30.06</v>
+        <v>29.84</v>
       </c>
       <c r="C4" t="n">
-        <v>30.06</v>
+        <v>29.64</v>
       </c>
       <c r="D4" t="n">
-        <v>30.06</v>
+        <v>29.84</v>
       </c>
       <c r="E4" t="n">
-        <v>30.06</v>
+        <v>29.64</v>
       </c>
       <c r="F4" t="n">
-        <v>331.8363</v>
+        <v>1822.9544</v>
       </c>
       <c r="G4" t="n">
-        <v>191445.3515517612</v>
+        <v>46717.41085176118</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -534,8 +538,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +556,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>29.86</v>
+        <v>29.88</v>
       </c>
       <c r="C5" t="n">
-        <v>29.86</v>
+        <v>29.88</v>
       </c>
       <c r="D5" t="n">
-        <v>29.86</v>
+        <v>29.88</v>
       </c>
       <c r="E5" t="n">
-        <v>29.86</v>
+        <v>29.88</v>
       </c>
       <c r="F5" t="n">
-        <v>1160.8364</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>190284.5151517612</v>
+        <v>46817.41085176118</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="K5" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +600,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30.06</v>
+        <v>29.88</v>
       </c>
       <c r="C6" t="n">
-        <v>30.06</v>
+        <v>29.98</v>
       </c>
       <c r="D6" t="n">
-        <v>30.06</v>
+        <v>29.98</v>
       </c>
       <c r="E6" t="n">
-        <v>30.06</v>
+        <v>29.88</v>
       </c>
       <c r="F6" t="n">
-        <v>16.7998</v>
+        <v>56000</v>
       </c>
       <c r="G6" t="n">
-        <v>190301.3149517612</v>
+        <v>102817.4108517612</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="K6" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +644,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>29.92</v>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>29.92</v>
       </c>
       <c r="D7" t="n">
-        <v>30.03</v>
+        <v>29.92</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>29.92</v>
       </c>
       <c r="F7" t="n">
-        <v>56880.5883</v>
+        <v>56200</v>
       </c>
       <c r="G7" t="n">
-        <v>133420.7266517612</v>
+        <v>46617.41085176117</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="K7" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +688,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>29.88</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>29.88</v>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>29.88</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>29.88</v>
       </c>
       <c r="F8" t="n">
-        <v>19175.142</v>
+        <v>18163.0846</v>
       </c>
       <c r="G8" t="n">
-        <v>133420.7266517612</v>
+        <v>28454.32625176118</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,8 +712,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +730,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>30.18</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>29.94</v>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>30.18</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>29.94</v>
       </c>
       <c r="F9" t="n">
-        <v>13818.7068</v>
+        <v>1783.0559</v>
       </c>
       <c r="G9" t="n">
-        <v>133420.7266517612</v>
+        <v>30237.38215176118</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="K9" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +774,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30.01</v>
+        <v>30.23</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>30.23</v>
       </c>
       <c r="D10" t="n">
-        <v>30.01</v>
+        <v>30.23</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>30.23</v>
       </c>
       <c r="F10" t="n">
-        <v>16746.4856</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>133420.7266517612</v>
+        <v>30337.38215176118</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +798,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +816,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>30.39</v>
+        <v>30.24</v>
       </c>
       <c r="C11" t="n">
-        <v>30.39</v>
+        <v>30.24</v>
       </c>
       <c r="D11" t="n">
-        <v>30.39</v>
+        <v>30.24</v>
       </c>
       <c r="E11" t="n">
-        <v>30.39</v>
+        <v>30.24</v>
       </c>
       <c r="F11" t="n">
-        <v>98.7167</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>133519.4433517611</v>
+        <v>30437.38215176118</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +840,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +858,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>30.4</v>
+        <v>30.25</v>
       </c>
       <c r="C12" t="n">
-        <v>30.42</v>
+        <v>30.25</v>
       </c>
       <c r="D12" t="n">
-        <v>30.42</v>
+        <v>30.25</v>
       </c>
       <c r="E12" t="n">
-        <v>30.4</v>
+        <v>30.25</v>
       </c>
       <c r="F12" t="n">
-        <v>6993.2764</v>
+        <v>16.2904</v>
       </c>
       <c r="G12" t="n">
-        <v>140512.7197517611</v>
+        <v>30453.67255176118</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +882,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +900,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>30.39</v>
+        <v>29.8</v>
       </c>
       <c r="C13" t="n">
-        <v>30.39</v>
+        <v>29.8</v>
       </c>
       <c r="D13" t="n">
-        <v>30.39</v>
+        <v>29.8</v>
       </c>
       <c r="E13" t="n">
-        <v>30.39</v>
+        <v>29.8</v>
       </c>
       <c r="F13" t="n">
-        <v>214881.9185</v>
+        <v>500</v>
       </c>
       <c r="G13" t="n">
-        <v>-74369.19874823885</v>
+        <v>29953.67255176118</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +924,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +942,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>30.12</v>
+        <v>29.88</v>
       </c>
       <c r="C14" t="n">
-        <v>30.12</v>
+        <v>29.88</v>
       </c>
       <c r="D14" t="n">
-        <v>30.12</v>
+        <v>29.89</v>
       </c>
       <c r="E14" t="n">
-        <v>30.12</v>
+        <v>29.88</v>
       </c>
       <c r="F14" t="n">
-        <v>558.35</v>
+        <v>137651.5354</v>
       </c>
       <c r="G14" t="n">
-        <v>-74927.54874823886</v>
+        <v>167605.2079517612</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,8 +966,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +984,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>29.88</v>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>29.88</v>
       </c>
       <c r="D15" t="n">
-        <v>30</v>
+        <v>29.88</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>29.88</v>
       </c>
       <c r="F15" t="n">
-        <v>1541.7098</v>
+        <v>3816.44</v>
       </c>
       <c r="G15" t="n">
-        <v>-76469.25854823885</v>
+        <v>167605.2079517612</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +1008,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1026,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>29.88</v>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>29.88</v>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>29.88</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>29.88</v>
       </c>
       <c r="F16" t="n">
-        <v>1000</v>
+        <v>178890</v>
       </c>
       <c r="G16" t="n">
-        <v>-76469.25854823885</v>
+        <v>167605.2079517612</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1050,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1068,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>30</v>
+        <v>29.92</v>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>29.98</v>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>29.98</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>29.92</v>
       </c>
       <c r="F17" t="n">
-        <v>8087.8064</v>
+        <v>24839.3406</v>
       </c>
       <c r="G17" t="n">
-        <v>-76469.25854823885</v>
+        <v>192444.5485517612</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1092,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1110,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>30</v>
+        <v>30.06</v>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>30.06</v>
       </c>
       <c r="D18" t="n">
-        <v>30</v>
+        <v>30.06</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>30.06</v>
       </c>
       <c r="F18" t="n">
-        <v>10650.8696</v>
+        <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>-76469.25854823885</v>
+        <v>192544.5485517612</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1134,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1152,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>30</v>
+        <v>29.89</v>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>29.89</v>
       </c>
       <c r="D19" t="n">
-        <v>30</v>
+        <v>29.89</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>29.89</v>
       </c>
       <c r="F19" t="n">
-        <v>3996.7688</v>
+        <v>16.8953</v>
       </c>
       <c r="G19" t="n">
-        <v>-76469.25854823885</v>
+        <v>192527.6532517612</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1176,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1194,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>30.15</v>
+        <v>29.86</v>
       </c>
       <c r="C20" t="n">
-        <v>30.15</v>
+        <v>29.8</v>
       </c>
       <c r="D20" t="n">
-        <v>30.15</v>
+        <v>29.86</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="F20" t="n">
-        <v>19794.2802</v>
+        <v>135.4346</v>
       </c>
       <c r="G20" t="n">
-        <v>-56674.97834823885</v>
+        <v>192392.2186517612</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1218,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1236,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>30.15</v>
+        <v>29.97</v>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>29.76</v>
       </c>
       <c r="D21" t="n">
-        <v>30.15</v>
+        <v>29.97</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>29.76</v>
       </c>
       <c r="F21" t="n">
-        <v>6104.3715</v>
+        <v>183.03</v>
       </c>
       <c r="G21" t="n">
-        <v>-62779.34984823885</v>
+        <v>192209.1886517612</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1260,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>30</v>
+        <v>29.96</v>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>29.67</v>
       </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>29.96</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>29.67</v>
       </c>
       <c r="F22" t="n">
-        <v>30824.3377</v>
+        <v>41434.5234</v>
       </c>
       <c r="G22" t="n">
-        <v>-62779.34984823885</v>
+        <v>150774.6652517612</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1302,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1320,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C23" t="n">
-        <v>30.16</v>
+        <v>30.1</v>
       </c>
       <c r="D23" t="n">
-        <v>30.16</v>
+        <v>30.1</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="F23" t="n">
-        <v>3600</v>
+        <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>-59179.34984823885</v>
+        <v>150874.6652517612</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1344,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1362,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>30</v>
+        <v>29.84</v>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>29.84</v>
       </c>
       <c r="D24" t="n">
-        <v>30</v>
+        <v>29.84</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>29.84</v>
       </c>
       <c r="F24" t="n">
-        <v>10214.6338</v>
+        <v>2794.1765</v>
       </c>
       <c r="G24" t="n">
-        <v>-69393.98364823885</v>
+        <v>148080.4887517611</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1386,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1404,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>30.15</v>
+        <v>29.9</v>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>29.89</v>
       </c>
       <c r="D25" t="n">
-        <v>30.15</v>
+        <v>29.9</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>29.89</v>
       </c>
       <c r="F25" t="n">
-        <v>1260.78</v>
+        <v>13455.9415</v>
       </c>
       <c r="G25" t="n">
-        <v>-69393.98364823885</v>
+        <v>161536.4302517612</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1428,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1446,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>30.07</v>
+        <v>30.2</v>
       </c>
       <c r="C26" t="n">
-        <v>30.07</v>
+        <v>30.2</v>
       </c>
       <c r="D26" t="n">
-        <v>30.07</v>
+        <v>30.2</v>
       </c>
       <c r="E26" t="n">
-        <v>30.07</v>
+        <v>30.2</v>
       </c>
       <c r="F26" t="n">
         <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>-69293.98364823885</v>
+        <v>161636.4302517612</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1470,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,36 +1488,38 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>30</v>
+        <v>30.25</v>
       </c>
       <c r="C27" t="n">
-        <v>30</v>
+        <v>30.25</v>
       </c>
       <c r="D27" t="n">
-        <v>30</v>
+        <v>30.25</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>30.25</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2362</v>
+        <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>-69294.21984823885</v>
+        <v>161736.4302517612</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>30.07</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>30.07</v>
-      </c>
-      <c r="L27" t="inlineStr"/>
+        <v>29.9</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1378,38 +1530,36 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>29.79</v>
+        <v>30.25</v>
       </c>
       <c r="C28" t="n">
-        <v>29.76</v>
+        <v>30.25</v>
       </c>
       <c r="D28" t="n">
-        <v>29.79</v>
+        <v>30.25</v>
       </c>
       <c r="E28" t="n">
-        <v>29.76</v>
+        <v>30.25</v>
       </c>
       <c r="F28" t="n">
-        <v>50467.208</v>
+        <v>1160.8364</v>
       </c>
       <c r="G28" t="n">
-        <v>-119761.4278482388</v>
+        <v>161736.4302517612</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>30</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -1422,34 +1572,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>29.77</v>
+        <v>30.18</v>
       </c>
       <c r="C29" t="n">
-        <v>29.98</v>
+        <v>30.18</v>
       </c>
       <c r="D29" t="n">
-        <v>29.98</v>
+        <v>30.18</v>
       </c>
       <c r="E29" t="n">
-        <v>29.77</v>
+        <v>30.18</v>
       </c>
       <c r="F29" t="n">
-        <v>4867.0744</v>
+        <v>99.12260000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>-114894.3534482388</v>
+        <v>161637.3076517612</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>29.76</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1466,22 +1614,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>29.99</v>
+        <v>30.24</v>
       </c>
       <c r="C30" t="n">
-        <v>30</v>
+        <v>30.24</v>
       </c>
       <c r="D30" t="n">
-        <v>30</v>
+        <v>30.24</v>
       </c>
       <c r="E30" t="n">
-        <v>29.99</v>
+        <v>30.24</v>
       </c>
       <c r="F30" t="n">
-        <v>3537.1124</v>
+        <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>-111357.2410482389</v>
+        <v>161737.3076517612</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1491,7 +1639,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1508,34 +1656,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>30</v>
+        <v>30.24</v>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>30.28</v>
       </c>
       <c r="D31" t="n">
-        <v>30</v>
+        <v>30.28</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>30.24</v>
       </c>
       <c r="F31" t="n">
-        <v>31806</v>
+        <v>39800</v>
       </c>
       <c r="G31" t="n">
-        <v>-111357.2410482389</v>
+        <v>201537.3076517612</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>30</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1552,7 +1698,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>29.85</v>
+        <v>30.06</v>
       </c>
       <c r="C32" t="n">
         <v>30.06</v>
@@ -1561,25 +1707,23 @@
         <v>30.06</v>
       </c>
       <c r="E32" t="n">
-        <v>29.85</v>
+        <v>30.06</v>
       </c>
       <c r="F32" t="n">
-        <v>32306</v>
+        <v>10091.9561</v>
       </c>
       <c r="G32" t="n">
-        <v>-79051.24104823885</v>
+        <v>191445.3515517612</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>30</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1596,34 +1740,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>29.85</v>
+        <v>30.06</v>
       </c>
       <c r="C33" t="n">
-        <v>29.83</v>
+        <v>30.06</v>
       </c>
       <c r="D33" t="n">
-        <v>29.85</v>
+        <v>30.06</v>
       </c>
       <c r="E33" t="n">
-        <v>29.83</v>
+        <v>30.06</v>
       </c>
       <c r="F33" t="n">
-        <v>48289.3514</v>
+        <v>331.8363</v>
       </c>
       <c r="G33" t="n">
-        <v>-127340.5924482389</v>
+        <v>191445.3515517612</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>30.06</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1640,22 +1782,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>29.93</v>
+        <v>29.86</v>
       </c>
       <c r="C34" t="n">
-        <v>29.92</v>
+        <v>29.86</v>
       </c>
       <c r="D34" t="n">
-        <v>29.93</v>
+        <v>29.86</v>
       </c>
       <c r="E34" t="n">
-        <v>29.92</v>
+        <v>29.86</v>
       </c>
       <c r="F34" t="n">
-        <v>180413.76</v>
+        <v>1160.8364</v>
       </c>
       <c r="G34" t="n">
-        <v>53073.16755176116</v>
+        <v>190284.5151517612</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1665,7 +1807,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1682,22 +1824,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>29.92</v>
+        <v>30.06</v>
       </c>
       <c r="C35" t="n">
-        <v>29.92</v>
+        <v>30.06</v>
       </c>
       <c r="D35" t="n">
-        <v>29.92</v>
+        <v>30.06</v>
       </c>
       <c r="E35" t="n">
-        <v>29.92</v>
+        <v>30.06</v>
       </c>
       <c r="F35" t="n">
-        <v>22456.2637</v>
+        <v>16.7998</v>
       </c>
       <c r="G35" t="n">
-        <v>53073.16755176116</v>
+        <v>190301.3149517612</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1707,7 +1849,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1724,22 +1866,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>29.92</v>
+        <v>30</v>
       </c>
       <c r="C36" t="n">
-        <v>29.92</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>29.92</v>
+        <v>30.03</v>
       </c>
       <c r="E36" t="n">
-        <v>29.92</v>
+        <v>30</v>
       </c>
       <c r="F36" t="n">
-        <v>110774.8865</v>
+        <v>56880.5883</v>
       </c>
       <c r="G36" t="n">
-        <v>53073.16755176116</v>
+        <v>133420.7266517612</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1749,7 +1891,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1766,22 +1908,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>30.06</v>
+        <v>30</v>
       </c>
       <c r="C37" t="n">
-        <v>30.06</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>30.06</v>
+        <v>30</v>
       </c>
       <c r="E37" t="n">
-        <v>30.06</v>
+        <v>30</v>
       </c>
       <c r="F37" t="n">
-        <v>17</v>
+        <v>19175.142</v>
       </c>
       <c r="G37" t="n">
-        <v>53090.16755176116</v>
+        <v>133420.7266517612</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1791,7 +1933,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1808,22 +1950,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>30.06</v>
+        <v>30</v>
       </c>
       <c r="C38" t="n">
-        <v>30.06</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>30.06</v>
+        <v>30</v>
       </c>
       <c r="E38" t="n">
-        <v>30.06</v>
+        <v>30</v>
       </c>
       <c r="F38" t="n">
-        <v>1054.1078</v>
+        <v>13818.7068</v>
       </c>
       <c r="G38" t="n">
-        <v>53090.16755176116</v>
+        <v>133420.7266517612</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1833,7 +1975,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1850,22 +1992,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>30.07</v>
+        <v>30.01</v>
       </c>
       <c r="C39" t="n">
-        <v>30.07</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>30.07</v>
+        <v>30.01</v>
       </c>
       <c r="E39" t="n">
-        <v>30.07</v>
+        <v>30</v>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>16746.4856</v>
       </c>
       <c r="G39" t="n">
-        <v>53190.16755176116</v>
+        <v>133420.7266517612</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1875,7 +2017,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1892,22 +2034,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>30.07</v>
+        <v>30.39</v>
       </c>
       <c r="C40" t="n">
-        <v>30.35</v>
+        <v>30.39</v>
       </c>
       <c r="D40" t="n">
-        <v>30.35</v>
+        <v>30.39</v>
       </c>
       <c r="E40" t="n">
-        <v>30.07</v>
+        <v>30.39</v>
       </c>
       <c r="F40" t="n">
-        <v>1639.6121</v>
+        <v>98.7167</v>
       </c>
       <c r="G40" t="n">
-        <v>54829.77965176116</v>
+        <v>133519.4433517611</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1917,7 +2059,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1934,22 +2076,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>30.39</v>
+        <v>30.4</v>
       </c>
       <c r="C41" t="n">
-        <v>30.39</v>
+        <v>30.42</v>
       </c>
       <c r="D41" t="n">
-        <v>30.39</v>
+        <v>30.42</v>
       </c>
       <c r="E41" t="n">
-        <v>30.39</v>
+        <v>30.4</v>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>6993.2764</v>
       </c>
       <c r="G41" t="n">
-        <v>54929.77965176116</v>
+        <v>140512.7197517611</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1959,7 +2101,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -1988,10 +2130,10 @@
         <v>30.39</v>
       </c>
       <c r="F42" t="n">
-        <v>2054.7364</v>
+        <v>214881.9185</v>
       </c>
       <c r="G42" t="n">
-        <v>54929.77965176116</v>
+        <v>-74369.19874823885</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2001,7 +2143,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2018,22 +2160,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>30.41</v>
+        <v>30.12</v>
       </c>
       <c r="C43" t="n">
-        <v>30.56</v>
+        <v>30.12</v>
       </c>
       <c r="D43" t="n">
-        <v>30.56</v>
+        <v>30.12</v>
       </c>
       <c r="E43" t="n">
-        <v>30.41</v>
+        <v>30.12</v>
       </c>
       <c r="F43" t="n">
-        <v>84051.3281</v>
+        <v>558.35</v>
       </c>
       <c r="G43" t="n">
-        <v>138981.1077517612</v>
+        <v>-74927.54874823886</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2043,7 +2185,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2060,22 +2202,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>30.58</v>
+        <v>30</v>
       </c>
       <c r="C44" t="n">
-        <v>30.58</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
-        <v>30.58</v>
+        <v>30</v>
       </c>
       <c r="E44" t="n">
-        <v>30.58</v>
+        <v>30</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>1541.7098</v>
       </c>
       <c r="G44" t="n">
-        <v>139081.1077517612</v>
+        <v>-76469.25854823885</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2085,7 +2227,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2102,22 +2244,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>30.59</v>
+        <v>30</v>
       </c>
       <c r="C45" t="n">
-        <v>30.59</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
-        <v>30.59</v>
+        <v>30</v>
       </c>
       <c r="E45" t="n">
-        <v>30.59</v>
+        <v>30</v>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G45" t="n">
-        <v>139181.1077517612</v>
+        <v>-76469.25854823885</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2127,7 +2269,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2144,22 +2286,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>30.4</v>
+        <v>30</v>
       </c>
       <c r="C46" t="n">
-        <v>30.4</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
-        <v>30.4</v>
+        <v>30</v>
       </c>
       <c r="E46" t="n">
-        <v>30.4</v>
+        <v>30</v>
       </c>
       <c r="F46" t="n">
-        <v>1996</v>
+        <v>8087.8064</v>
       </c>
       <c r="G46" t="n">
-        <v>137185.1077517612</v>
+        <v>-76469.25854823885</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2169,7 +2311,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2186,22 +2328,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>30.58</v>
+        <v>30</v>
       </c>
       <c r="C47" t="n">
-        <v>30.58</v>
+        <v>30</v>
       </c>
       <c r="D47" t="n">
-        <v>30.58</v>
+        <v>30</v>
       </c>
       <c r="E47" t="n">
-        <v>30.58</v>
+        <v>30</v>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>10650.8696</v>
       </c>
       <c r="G47" t="n">
-        <v>137285.1077517612</v>
+        <v>-76469.25854823885</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2211,7 +2353,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2228,22 +2370,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="C48" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="E48" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>3996.7688</v>
       </c>
       <c r="G48" t="n">
-        <v>137385.1077517612</v>
+        <v>-76469.25854823885</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2253,7 +2395,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2270,22 +2412,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>30.29</v>
+        <v>30.15</v>
       </c>
       <c r="C49" t="n">
-        <v>30.29</v>
+        <v>30.15</v>
       </c>
       <c r="D49" t="n">
-        <v>30.29</v>
+        <v>30.15</v>
       </c>
       <c r="E49" t="n">
-        <v>30.29</v>
+        <v>30</v>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>19794.2802</v>
       </c>
       <c r="G49" t="n">
-        <v>135385.1077517612</v>
+        <v>-56674.97834823885</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2295,7 +2437,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2312,22 +2454,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>30.49</v>
+        <v>30.15</v>
       </c>
       <c r="C50" t="n">
-        <v>30.49</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
-        <v>30.49</v>
+        <v>30.15</v>
       </c>
       <c r="E50" t="n">
-        <v>30.49</v>
+        <v>30</v>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>6104.3715</v>
       </c>
       <c r="G50" t="n">
-        <v>135485.1077517612</v>
+        <v>-62779.34984823885</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2337,7 +2479,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2354,22 +2496,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>30.54</v>
+        <v>30</v>
       </c>
       <c r="C51" t="n">
-        <v>30.54</v>
+        <v>30</v>
       </c>
       <c r="D51" t="n">
-        <v>30.54</v>
+        <v>30</v>
       </c>
       <c r="E51" t="n">
-        <v>30.54</v>
+        <v>30</v>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>30824.3377</v>
       </c>
       <c r="G51" t="n">
-        <v>135585.1077517612</v>
+        <v>-62779.34984823885</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2379,7 +2521,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2396,22 +2538,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>30.52</v>
+        <v>30</v>
       </c>
       <c r="C52" t="n">
-        <v>30.52</v>
+        <v>30.16</v>
       </c>
       <c r="D52" t="n">
-        <v>30.52</v>
+        <v>30.16</v>
       </c>
       <c r="E52" t="n">
-        <v>30.52</v>
+        <v>30</v>
       </c>
       <c r="F52" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="G52" t="n">
-        <v>132585.1077517612</v>
+        <v>-59179.34984823885</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2421,7 +2563,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2438,66 +2580,64 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>30.45</v>
+        <v>30</v>
       </c>
       <c r="C53" t="n">
-        <v>30.45</v>
+        <v>30</v>
       </c>
       <c r="D53" t="n">
-        <v>30.45</v>
+        <v>30</v>
       </c>
       <c r="E53" t="n">
-        <v>30.45</v>
+        <v>30</v>
       </c>
       <c r="F53" t="n">
-        <v>3061.4183</v>
+        <v>10214.6338</v>
       </c>
       <c r="G53" t="n">
-        <v>129523.6894517612</v>
+        <v>-69393.98364823885</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>30.07</v>
+        <v>29.9</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>1.007637179913535</v>
-      </c>
-      <c r="N53" t="n">
-        <v>1.018754186202277</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>30.23</v>
+        <v>30.15</v>
       </c>
       <c r="C54" t="n">
-        <v>29.95</v>
+        <v>30</v>
       </c>
       <c r="D54" t="n">
-        <v>30.23</v>
+        <v>30.15</v>
       </c>
       <c r="E54" t="n">
-        <v>29.95</v>
+        <v>30</v>
       </c>
       <c r="F54" t="n">
-        <v>3831.0096</v>
+        <v>1260.78</v>
       </c>
       <c r="G54" t="n">
-        <v>125692.6798517611</v>
+        <v>-69393.98364823885</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2506,8 +2646,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2518,22 +2664,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>30.36</v>
+        <v>30.07</v>
       </c>
       <c r="C55" t="n">
-        <v>30.36</v>
+        <v>30.07</v>
       </c>
       <c r="D55" t="n">
-        <v>30.36</v>
+        <v>30.07</v>
       </c>
       <c r="E55" t="n">
-        <v>30.36</v>
+        <v>30.07</v>
       </c>
       <c r="F55" t="n">
         <v>100</v>
       </c>
       <c r="G55" t="n">
-        <v>125792.6798517611</v>
+        <v>-69293.98364823885</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2542,8 +2688,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2554,22 +2706,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>30.31</v>
+        <v>30</v>
       </c>
       <c r="C56" t="n">
-        <v>30.31</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
-        <v>30.31</v>
+        <v>30</v>
       </c>
       <c r="E56" t="n">
-        <v>30.31</v>
+        <v>30</v>
       </c>
       <c r="F56" t="n">
-        <v>328.5573</v>
+        <v>0.2362</v>
       </c>
       <c r="G56" t="n">
-        <v>125464.1225517611</v>
+        <v>-69294.21984823885</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2578,8 +2730,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2590,22 +2748,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>30.47</v>
+        <v>29.79</v>
       </c>
       <c r="C57" t="n">
-        <v>30.47</v>
+        <v>29.76</v>
       </c>
       <c r="D57" t="n">
-        <v>30.47</v>
+        <v>29.79</v>
       </c>
       <c r="E57" t="n">
-        <v>30.47</v>
+        <v>29.76</v>
       </c>
       <c r="F57" t="n">
-        <v>100</v>
+        <v>50467.208</v>
       </c>
       <c r="G57" t="n">
-        <v>125564.1225517611</v>
+        <v>-119761.4278482388</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2614,8 +2772,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2626,22 +2790,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>29.95</v>
+        <v>29.77</v>
       </c>
       <c r="C58" t="n">
-        <v>29.95</v>
+        <v>29.98</v>
       </c>
       <c r="D58" t="n">
-        <v>29.95</v>
+        <v>29.98</v>
       </c>
       <c r="E58" t="n">
-        <v>29.95</v>
+        <v>29.77</v>
       </c>
       <c r="F58" t="n">
-        <v>1805.0651</v>
+        <v>4867.0744</v>
       </c>
       <c r="G58" t="n">
-        <v>123759.0574517611</v>
+        <v>-114894.3534482388</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2650,8 +2814,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2662,22 +2832,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>30.3</v>
+        <v>29.99</v>
       </c>
       <c r="C59" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="D59" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="E59" t="n">
-        <v>30.3</v>
+        <v>29.99</v>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>3537.1124</v>
       </c>
       <c r="G59" t="n">
-        <v>123859.0574517611</v>
+        <v>-111357.2410482389</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2686,8 +2856,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2698,22 +2874,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>30.31</v>
+        <v>30</v>
       </c>
       <c r="C60" t="n">
-        <v>30.31</v>
+        <v>30</v>
       </c>
       <c r="D60" t="n">
-        <v>30.31</v>
+        <v>30</v>
       </c>
       <c r="E60" t="n">
-        <v>30.31</v>
+        <v>30</v>
       </c>
       <c r="F60" t="n">
-        <v>100</v>
+        <v>31806</v>
       </c>
       <c r="G60" t="n">
-        <v>123959.0574517611</v>
+        <v>-111357.2410482389</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2722,8 +2898,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2734,22 +2916,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>30.07</v>
+        <v>29.85</v>
       </c>
       <c r="C61" t="n">
-        <v>30.07</v>
+        <v>30.06</v>
       </c>
       <c r="D61" t="n">
-        <v>30.07</v>
+        <v>30.06</v>
       </c>
       <c r="E61" t="n">
-        <v>30.07</v>
+        <v>29.85</v>
       </c>
       <c r="F61" t="n">
-        <v>3000</v>
+        <v>32306</v>
       </c>
       <c r="G61" t="n">
-        <v>120959.0574517611</v>
+        <v>-79051.24104823885</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2758,8 +2940,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2770,22 +2958,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>30.23</v>
+        <v>29.85</v>
       </c>
       <c r="C62" t="n">
-        <v>30.23</v>
+        <v>29.83</v>
       </c>
       <c r="D62" t="n">
-        <v>30.23</v>
+        <v>29.85</v>
       </c>
       <c r="E62" t="n">
-        <v>30.23</v>
+        <v>29.83</v>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>48289.3514</v>
       </c>
       <c r="G62" t="n">
-        <v>121059.0574517611</v>
+        <v>-127340.5924482389</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2794,8 +2982,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2806,22 +3000,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>30.32</v>
+        <v>29.93</v>
       </c>
       <c r="C63" t="n">
-        <v>30.32</v>
+        <v>29.92</v>
       </c>
       <c r="D63" t="n">
-        <v>30.32</v>
+        <v>29.93</v>
       </c>
       <c r="E63" t="n">
-        <v>30.32</v>
+        <v>29.92</v>
       </c>
       <c r="F63" t="n">
-        <v>200</v>
+        <v>180413.76</v>
       </c>
       <c r="G63" t="n">
-        <v>121259.0574517611</v>
+        <v>53073.16755176116</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2830,8 +3024,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2842,22 +3042,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>30.35</v>
+        <v>29.92</v>
       </c>
       <c r="C64" t="n">
-        <v>30.35</v>
+        <v>29.92</v>
       </c>
       <c r="D64" t="n">
-        <v>30.35</v>
+        <v>29.92</v>
       </c>
       <c r="E64" t="n">
-        <v>30.35</v>
+        <v>29.92</v>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>22456.2637</v>
       </c>
       <c r="G64" t="n">
-        <v>121359.0574517611</v>
+        <v>53073.16755176116</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2866,8 +3066,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2878,22 +3084,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>30.11</v>
+        <v>29.92</v>
       </c>
       <c r="C65" t="n">
-        <v>30.11</v>
+        <v>29.92</v>
       </c>
       <c r="D65" t="n">
-        <v>30.11</v>
+        <v>29.92</v>
       </c>
       <c r="E65" t="n">
-        <v>30.11</v>
+        <v>29.92</v>
       </c>
       <c r="F65" t="n">
-        <v>1211.3006</v>
+        <v>110774.8865</v>
       </c>
       <c r="G65" t="n">
-        <v>120147.7568517611</v>
+        <v>53073.16755176116</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2902,8 +3108,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2914,22 +3126,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>30.25</v>
+        <v>30.06</v>
       </c>
       <c r="C66" t="n">
-        <v>30.25</v>
+        <v>30.06</v>
       </c>
       <c r="D66" t="n">
-        <v>30.25</v>
+        <v>30.06</v>
       </c>
       <c r="E66" t="n">
-        <v>30.25</v>
+        <v>30.06</v>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="G66" t="n">
-        <v>120347.7568517611</v>
+        <v>53090.16755176116</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2938,8 +3150,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2950,22 +3168,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>30.24</v>
+        <v>30.06</v>
       </c>
       <c r="C67" t="n">
-        <v>30.24</v>
+        <v>30.06</v>
       </c>
       <c r="D67" t="n">
-        <v>30.24</v>
+        <v>30.06</v>
       </c>
       <c r="E67" t="n">
-        <v>30.24</v>
+        <v>30.06</v>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>1054.1078</v>
       </c>
       <c r="G67" t="n">
-        <v>120247.7568517611</v>
+        <v>53090.16755176116</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2974,8 +3192,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2986,22 +3210,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>30.26</v>
+        <v>30.07</v>
       </c>
       <c r="C68" t="n">
-        <v>30.26</v>
+        <v>30.07</v>
       </c>
       <c r="D68" t="n">
-        <v>30.26</v>
+        <v>30.07</v>
       </c>
       <c r="E68" t="n">
-        <v>30.26</v>
+        <v>30.07</v>
       </c>
       <c r="F68" t="n">
-        <v>1282.9751</v>
+        <v>100</v>
       </c>
       <c r="G68" t="n">
-        <v>121530.7319517611</v>
+        <v>53190.16755176116</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3010,8 +3234,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3022,22 +3252,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>30.04</v>
+        <v>30.07</v>
       </c>
       <c r="C69" t="n">
-        <v>30.04</v>
+        <v>30.35</v>
       </c>
       <c r="D69" t="n">
-        <v>30.04</v>
+        <v>30.35</v>
       </c>
       <c r="E69" t="n">
-        <v>30.04</v>
+        <v>30.07</v>
       </c>
       <c r="F69" t="n">
-        <v>3061.4183</v>
+        <v>1639.6121</v>
       </c>
       <c r="G69" t="n">
-        <v>118469.3136517611</v>
+        <v>54829.77965176116</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3046,8 +3276,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3294,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>30.24</v>
+        <v>30.39</v>
       </c>
       <c r="C70" t="n">
-        <v>30.25</v>
+        <v>30.39</v>
       </c>
       <c r="D70" t="n">
-        <v>30.25</v>
+        <v>30.39</v>
       </c>
       <c r="E70" t="n">
-        <v>30.24</v>
+        <v>30.39</v>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G70" t="n">
-        <v>118669.3136517611</v>
+        <v>54929.77965176116</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3082,8 +3318,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3094,22 +3336,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>30.26</v>
+        <v>30.39</v>
       </c>
       <c r="C71" t="n">
-        <v>30.26</v>
+        <v>30.39</v>
       </c>
       <c r="D71" t="n">
-        <v>30.26</v>
+        <v>30.39</v>
       </c>
       <c r="E71" t="n">
-        <v>30.26</v>
+        <v>30.39</v>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>2054.7364</v>
       </c>
       <c r="G71" t="n">
-        <v>118769.3136517611</v>
+        <v>54929.77965176116</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3118,8 +3360,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3130,22 +3378,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>30</v>
+        <v>30.41</v>
       </c>
       <c r="C72" t="n">
-        <v>30</v>
+        <v>30.56</v>
       </c>
       <c r="D72" t="n">
-        <v>30</v>
+        <v>30.56</v>
       </c>
       <c r="E72" t="n">
-        <v>30</v>
+        <v>30.41</v>
       </c>
       <c r="F72" t="n">
-        <v>2736.2097</v>
+        <v>84051.3281</v>
       </c>
       <c r="G72" t="n">
-        <v>116033.1039517611</v>
+        <v>138981.1077517612</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3154,8 +3402,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3166,22 +3420,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>30.15</v>
+        <v>30.58</v>
       </c>
       <c r="C73" t="n">
-        <v>30.15</v>
+        <v>30.58</v>
       </c>
       <c r="D73" t="n">
-        <v>30.15</v>
+        <v>30.58</v>
       </c>
       <c r="E73" t="n">
-        <v>30.15</v>
+        <v>30.58</v>
       </c>
       <c r="F73" t="n">
         <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>116133.1039517611</v>
+        <v>139081.1077517612</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3190,8 +3444,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3202,22 +3462,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>30.15</v>
+        <v>30.59</v>
       </c>
       <c r="C74" t="n">
-        <v>30.26</v>
+        <v>30.59</v>
       </c>
       <c r="D74" t="n">
-        <v>30.26</v>
+        <v>30.59</v>
       </c>
       <c r="E74" t="n">
-        <v>30.15</v>
+        <v>30.59</v>
       </c>
       <c r="F74" t="n">
-        <v>25500</v>
+        <v>100</v>
       </c>
       <c r="G74" t="n">
-        <v>141633.1039517611</v>
+        <v>139181.1077517612</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3226,8 +3486,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3238,22 +3504,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>30.26</v>
+        <v>30.4</v>
       </c>
       <c r="C75" t="n">
-        <v>30.54</v>
+        <v>30.4</v>
       </c>
       <c r="D75" t="n">
-        <v>30.54</v>
+        <v>30.4</v>
       </c>
       <c r="E75" t="n">
-        <v>30.26</v>
+        <v>30.4</v>
       </c>
       <c r="F75" t="n">
-        <v>15528</v>
+        <v>1996</v>
       </c>
       <c r="G75" t="n">
-        <v>157161.1039517611</v>
+        <v>137185.1077517612</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3262,8 +3528,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3274,22 +3546,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>30.26</v>
+        <v>30.58</v>
       </c>
       <c r="C76" t="n">
-        <v>30.26</v>
+        <v>30.58</v>
       </c>
       <c r="D76" t="n">
-        <v>30.26</v>
+        <v>30.58</v>
       </c>
       <c r="E76" t="n">
-        <v>30.26</v>
+        <v>30.58</v>
       </c>
       <c r="F76" t="n">
-        <v>3507.6794</v>
+        <v>100</v>
       </c>
       <c r="G76" t="n">
-        <v>153653.4245517611</v>
+        <v>137285.1077517612</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3298,8 +3570,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3310,22 +3588,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>30.52</v>
+        <v>30.6</v>
       </c>
       <c r="C77" t="n">
-        <v>30.74</v>
+        <v>30.6</v>
       </c>
       <c r="D77" t="n">
-        <v>30.74</v>
+        <v>30.6</v>
       </c>
       <c r="E77" t="n">
-        <v>30.52</v>
+        <v>30.6</v>
       </c>
       <c r="F77" t="n">
-        <v>56028.2421</v>
+        <v>100</v>
       </c>
       <c r="G77" t="n">
-        <v>209681.6666517611</v>
+        <v>137385.1077517612</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3334,8 +3612,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3346,22 +3630,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>30.7</v>
+        <v>30.29</v>
       </c>
       <c r="C78" t="n">
-        <v>30.7</v>
+        <v>30.29</v>
       </c>
       <c r="D78" t="n">
-        <v>30.7</v>
+        <v>30.29</v>
       </c>
       <c r="E78" t="n">
-        <v>30.7</v>
+        <v>30.29</v>
       </c>
       <c r="F78" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="G78" t="n">
-        <v>206881.6666517611</v>
+        <v>135385.1077517612</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3370,8 +3654,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3382,32 +3672,38 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>30.42</v>
+        <v>30.49</v>
       </c>
       <c r="C79" t="n">
-        <v>30.42</v>
+        <v>30.49</v>
       </c>
       <c r="D79" t="n">
-        <v>30.42</v>
+        <v>30.49</v>
       </c>
       <c r="E79" t="n">
-        <v>30.42</v>
+        <v>30.49</v>
       </c>
       <c r="F79" t="n">
         <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>206781.6666517611</v>
+        <v>135485.1077517612</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3418,22 +3714,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>30.72</v>
+        <v>30.54</v>
       </c>
       <c r="C80" t="n">
-        <v>30.72</v>
+        <v>30.54</v>
       </c>
       <c r="D80" t="n">
-        <v>30.72</v>
+        <v>30.54</v>
       </c>
       <c r="E80" t="n">
-        <v>30.72</v>
+        <v>30.54</v>
       </c>
       <c r="F80" t="n">
         <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>206881.6666517611</v>
+        <v>135585.1077517612</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3442,8 +3738,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3454,32 +3756,38 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>30.48</v>
+        <v>30.52</v>
       </c>
       <c r="C81" t="n">
-        <v>30.48</v>
+        <v>30.52</v>
       </c>
       <c r="D81" t="n">
-        <v>30.48</v>
+        <v>30.52</v>
       </c>
       <c r="E81" t="n">
-        <v>30.48</v>
+        <v>30.52</v>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G81" t="n">
-        <v>205881.6666517611</v>
+        <v>132585.1077517612</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3490,22 +3798,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>30.62</v>
+        <v>30.45</v>
       </c>
       <c r="C82" t="n">
-        <v>30.62</v>
+        <v>30.45</v>
       </c>
       <c r="D82" t="n">
-        <v>30.62</v>
+        <v>30.45</v>
       </c>
       <c r="E82" t="n">
-        <v>30.62</v>
+        <v>30.45</v>
       </c>
       <c r="F82" t="n">
-        <v>100</v>
+        <v>3061.4183</v>
       </c>
       <c r="G82" t="n">
-        <v>205981.6666517611</v>
+        <v>129523.6894517612</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3514,8 +3822,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3526,32 +3840,38 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>30.63</v>
+        <v>30.23</v>
       </c>
       <c r="C83" t="n">
-        <v>30.63</v>
+        <v>29.95</v>
       </c>
       <c r="D83" t="n">
-        <v>30.63</v>
+        <v>30.23</v>
       </c>
       <c r="E83" t="n">
-        <v>30.63</v>
+        <v>29.95</v>
       </c>
       <c r="F83" t="n">
-        <v>33.00685602350637</v>
+        <v>3831.0096</v>
       </c>
       <c r="G83" t="n">
-        <v>206014.6735077846</v>
+        <v>125692.6798517611</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3562,32 +3882,38 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>30.64</v>
+        <v>30.36</v>
       </c>
       <c r="C84" t="n">
-        <v>30.64</v>
+        <v>30.36</v>
       </c>
       <c r="D84" t="n">
-        <v>30.64</v>
+        <v>30.36</v>
       </c>
       <c r="E84" t="n">
-        <v>30.64</v>
+        <v>30.36</v>
       </c>
       <c r="F84" t="n">
-        <v>10146.9818</v>
+        <v>100</v>
       </c>
       <c r="G84" t="n">
-        <v>216161.6553077846</v>
+        <v>125792.6798517611</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3598,32 +3924,38 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>30.36</v>
+        <v>30.31</v>
       </c>
       <c r="C85" t="n">
-        <v>30.58</v>
+        <v>30.31</v>
       </c>
       <c r="D85" t="n">
-        <v>30.58</v>
+        <v>30.31</v>
       </c>
       <c r="E85" t="n">
-        <v>30.35</v>
+        <v>30.31</v>
       </c>
       <c r="F85" t="n">
-        <v>197280.951</v>
+        <v>328.5573</v>
       </c>
       <c r="G85" t="n">
-        <v>18880.70430778465</v>
+        <v>125464.1225517611</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3634,32 +3966,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>30.63</v>
+        <v>30.47</v>
       </c>
       <c r="C86" t="n">
-        <v>30.63</v>
+        <v>30.47</v>
       </c>
       <c r="D86" t="n">
-        <v>30.63</v>
+        <v>30.47</v>
       </c>
       <c r="E86" t="n">
-        <v>30.63</v>
+        <v>30.47</v>
       </c>
       <c r="F86" t="n">
         <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>18980.70430778465</v>
+        <v>125564.1225517611</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3670,32 +4008,38 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>30.56</v>
+        <v>29.95</v>
       </c>
       <c r="C87" t="n">
-        <v>30.56</v>
+        <v>29.95</v>
       </c>
       <c r="D87" t="n">
-        <v>30.56</v>
+        <v>29.95</v>
       </c>
       <c r="E87" t="n">
-        <v>30.56</v>
+        <v>29.95</v>
       </c>
       <c r="F87" t="n">
-        <v>8102.6233</v>
+        <v>1805.0651</v>
       </c>
       <c r="G87" t="n">
-        <v>10878.08100778465</v>
+        <v>123759.0574517611</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3706,32 +4050,38 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>30.56</v>
+        <v>30.3</v>
       </c>
       <c r="C88" t="n">
-        <v>30.56</v>
+        <v>30.3</v>
       </c>
       <c r="D88" t="n">
-        <v>30.56</v>
+        <v>30.3</v>
       </c>
       <c r="E88" t="n">
-        <v>30.56</v>
+        <v>30.3</v>
       </c>
       <c r="F88" t="n">
-        <v>160.5533</v>
+        <v>100</v>
       </c>
       <c r="G88" t="n">
-        <v>10878.08100778465</v>
+        <v>123859.0574517611</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3742,32 +4092,38 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>30.57</v>
+        <v>30.31</v>
       </c>
       <c r="C89" t="n">
-        <v>30.56</v>
+        <v>30.31</v>
       </c>
       <c r="D89" t="n">
-        <v>30.57</v>
+        <v>30.31</v>
       </c>
       <c r="E89" t="n">
-        <v>30.56</v>
+        <v>30.31</v>
       </c>
       <c r="F89" t="n">
-        <v>587.151</v>
+        <v>100</v>
       </c>
       <c r="G89" t="n">
-        <v>10878.08100778465</v>
+        <v>123959.0574517611</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3778,32 +4134,38 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>30.58</v>
+        <v>30.07</v>
       </c>
       <c r="C90" t="n">
-        <v>30.58</v>
+        <v>30.07</v>
       </c>
       <c r="D90" t="n">
-        <v>30.58</v>
+        <v>30.07</v>
       </c>
       <c r="E90" t="n">
-        <v>30.58</v>
+        <v>30.07</v>
       </c>
       <c r="F90" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G90" t="n">
-        <v>10978.08100778465</v>
+        <v>120959.0574517611</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3814,32 +4176,38 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>30.56</v>
+        <v>30.23</v>
       </c>
       <c r="C91" t="n">
-        <v>30.56</v>
+        <v>30.23</v>
       </c>
       <c r="D91" t="n">
-        <v>30.56</v>
+        <v>30.23</v>
       </c>
       <c r="E91" t="n">
-        <v>30.56</v>
+        <v>30.23</v>
       </c>
       <c r="F91" t="n">
-        <v>1009.2322</v>
+        <v>100</v>
       </c>
       <c r="G91" t="n">
-        <v>9968.848807784647</v>
+        <v>121059.0574517611</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3850,32 +4218,38 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>30.34</v>
+        <v>30.32</v>
       </c>
       <c r="C92" t="n">
-        <v>30.55</v>
+        <v>30.32</v>
       </c>
       <c r="D92" t="n">
-        <v>30.55</v>
+        <v>30.32</v>
       </c>
       <c r="E92" t="n">
-        <v>30.34</v>
+        <v>30.32</v>
       </c>
       <c r="F92" t="n">
-        <v>5842.9242</v>
+        <v>200</v>
       </c>
       <c r="G92" t="n">
-        <v>4125.924607784646</v>
+        <v>121259.0574517611</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3886,32 +4260,38 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>30.37</v>
+        <v>30.35</v>
       </c>
       <c r="C93" t="n">
-        <v>30.37</v>
+        <v>30.35</v>
       </c>
       <c r="D93" t="n">
-        <v>30.37</v>
+        <v>30.35</v>
       </c>
       <c r="E93" t="n">
-        <v>30.37</v>
+        <v>30.35</v>
       </c>
       <c r="F93" t="n">
-        <v>286.1242</v>
+        <v>100</v>
       </c>
       <c r="G93" t="n">
-        <v>3839.800407784646</v>
+        <v>121359.0574517611</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3922,32 +4302,38 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>30.47</v>
+        <v>30.11</v>
       </c>
       <c r="C94" t="n">
-        <v>30.47</v>
+        <v>30.11</v>
       </c>
       <c r="D94" t="n">
-        <v>30.47</v>
+        <v>30.11</v>
       </c>
       <c r="E94" t="n">
-        <v>30.47</v>
+        <v>30.11</v>
       </c>
       <c r="F94" t="n">
-        <v>500</v>
+        <v>1211.3006</v>
       </c>
       <c r="G94" t="n">
-        <v>4339.800407784646</v>
+        <v>120147.7568517611</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3958,32 +4344,38 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>30.53</v>
+        <v>30.25</v>
       </c>
       <c r="C95" t="n">
-        <v>30.53</v>
+        <v>30.25</v>
       </c>
       <c r="D95" t="n">
-        <v>30.53</v>
+        <v>30.25</v>
       </c>
       <c r="E95" t="n">
-        <v>30.53</v>
+        <v>30.25</v>
       </c>
       <c r="F95" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G95" t="n">
-        <v>4439.800407784646</v>
+        <v>120347.7568517611</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3994,32 +4386,38 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>30.55</v>
+        <v>30.24</v>
       </c>
       <c r="C96" t="n">
-        <v>30.55</v>
+        <v>30.24</v>
       </c>
       <c r="D96" t="n">
-        <v>30.55</v>
+        <v>30.24</v>
       </c>
       <c r="E96" t="n">
-        <v>30.55</v>
+        <v>30.24</v>
       </c>
       <c r="F96" t="n">
         <v>100</v>
       </c>
       <c r="G96" t="n">
-        <v>4539.800407784646</v>
+        <v>120247.7568517611</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4030,32 +4428,38 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>30.55</v>
+        <v>30.26</v>
       </c>
       <c r="C97" t="n">
-        <v>30.55</v>
+        <v>30.26</v>
       </c>
       <c r="D97" t="n">
-        <v>30.55</v>
+        <v>30.26</v>
       </c>
       <c r="E97" t="n">
-        <v>30.55</v>
+        <v>30.26</v>
       </c>
       <c r="F97" t="n">
-        <v>17800</v>
+        <v>1282.9751</v>
       </c>
       <c r="G97" t="n">
-        <v>4539.800407784646</v>
+        <v>121530.7319517611</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4066,32 +4470,38 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>30.37</v>
+        <v>30.04</v>
       </c>
       <c r="C98" t="n">
-        <v>30.37</v>
+        <v>30.04</v>
       </c>
       <c r="D98" t="n">
-        <v>30.37</v>
+        <v>30.04</v>
       </c>
       <c r="E98" t="n">
-        <v>30.37</v>
+        <v>30.04</v>
       </c>
       <c r="F98" t="n">
-        <v>2916.2656</v>
+        <v>3061.4183</v>
       </c>
       <c r="G98" t="n">
-        <v>1623.534807784646</v>
+        <v>118469.3136517611</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4102,32 +4512,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>30.43</v>
+        <v>30.24</v>
       </c>
       <c r="C99" t="n">
-        <v>30.43</v>
+        <v>30.25</v>
       </c>
       <c r="D99" t="n">
-        <v>30.43</v>
+        <v>30.25</v>
       </c>
       <c r="E99" t="n">
-        <v>30.43</v>
+        <v>30.24</v>
       </c>
       <c r="F99" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G99" t="n">
-        <v>1723.534807784646</v>
+        <v>118669.3136517611</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4138,32 +4554,38 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>30.36</v>
+        <v>30.26</v>
       </c>
       <c r="C100" t="n">
-        <v>30.39</v>
+        <v>30.26</v>
       </c>
       <c r="D100" t="n">
-        <v>30.39</v>
+        <v>30.26</v>
       </c>
       <c r="E100" t="n">
-        <v>30.25</v>
+        <v>30.26</v>
       </c>
       <c r="F100" t="n">
-        <v>466.568</v>
+        <v>100</v>
       </c>
       <c r="G100" t="n">
-        <v>1256.966807784646</v>
+        <v>118769.3136517611</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4174,32 +4596,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>30.26</v>
+        <v>30</v>
       </c>
       <c r="C101" t="n">
-        <v>30.26</v>
+        <v>30</v>
       </c>
       <c r="D101" t="n">
-        <v>30.26</v>
+        <v>30</v>
       </c>
       <c r="E101" t="n">
-        <v>30.26</v>
+        <v>30</v>
       </c>
       <c r="F101" t="n">
-        <v>996.7444</v>
+        <v>2736.2097</v>
       </c>
       <c r="G101" t="n">
-        <v>260.2224077846461</v>
+        <v>116033.1039517611</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4210,22 +4638,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>30.46</v>
+        <v>30.15</v>
       </c>
       <c r="C102" t="n">
-        <v>30.46</v>
+        <v>30.15</v>
       </c>
       <c r="D102" t="n">
-        <v>30.46</v>
+        <v>30.15</v>
       </c>
       <c r="E102" t="n">
-        <v>30.46</v>
+        <v>30.15</v>
       </c>
       <c r="F102" t="n">
         <v>100</v>
       </c>
       <c r="G102" t="n">
-        <v>360.2224077846461</v>
+        <v>116133.1039517611</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4234,8 +4662,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4246,22 +4680,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>30.3</v>
+        <v>30.15</v>
       </c>
       <c r="C103" t="n">
-        <v>30.45</v>
+        <v>30.26</v>
       </c>
       <c r="D103" t="n">
-        <v>30.45</v>
+        <v>30.26</v>
       </c>
       <c r="E103" t="n">
-        <v>30.3</v>
+        <v>30.15</v>
       </c>
       <c r="F103" t="n">
-        <v>2562.4876</v>
+        <v>25500</v>
       </c>
       <c r="G103" t="n">
-        <v>-2202.265192215354</v>
+        <v>141633.1039517611</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4270,8 +4704,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4282,22 +4722,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>30.3</v>
+        <v>30.26</v>
       </c>
       <c r="C104" t="n">
-        <v>30.3</v>
+        <v>30.54</v>
       </c>
       <c r="D104" t="n">
-        <v>30.3</v>
+        <v>30.54</v>
       </c>
       <c r="E104" t="n">
-        <v>30.3</v>
+        <v>30.26</v>
       </c>
       <c r="F104" t="n">
-        <v>1279.9784</v>
+        <v>15528</v>
       </c>
       <c r="G104" t="n">
-        <v>-3482.243592215354</v>
+        <v>157161.1039517611</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4306,8 +4746,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4318,22 +4764,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>30.3</v>
+        <v>30.26</v>
       </c>
       <c r="C105" t="n">
-        <v>30.3</v>
+        <v>30.26</v>
       </c>
       <c r="D105" t="n">
-        <v>30.3</v>
+        <v>30.26</v>
       </c>
       <c r="E105" t="n">
-        <v>30.3</v>
+        <v>30.26</v>
       </c>
       <c r="F105" t="n">
-        <v>96960.10060000001</v>
+        <v>3507.6794</v>
       </c>
       <c r="G105" t="n">
-        <v>-3482.243592215354</v>
+        <v>153653.4245517611</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4342,8 +4788,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4354,22 +4806,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>30.3</v>
+        <v>30.52</v>
       </c>
       <c r="C106" t="n">
-        <v>30.3</v>
+        <v>30.74</v>
       </c>
       <c r="D106" t="n">
-        <v>30.3</v>
+        <v>30.74</v>
       </c>
       <c r="E106" t="n">
-        <v>30.3</v>
+        <v>30.52</v>
       </c>
       <c r="F106" t="n">
-        <v>45507.1161</v>
+        <v>56028.2421</v>
       </c>
       <c r="G106" t="n">
-        <v>-3482.243592215354</v>
+        <v>209681.6666517611</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4378,8 +4830,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4390,22 +4848,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>30.26</v>
+        <v>30.7</v>
       </c>
       <c r="C107" t="n">
-        <v>30.26</v>
+        <v>30.7</v>
       </c>
       <c r="D107" t="n">
-        <v>30.26</v>
+        <v>30.7</v>
       </c>
       <c r="E107" t="n">
-        <v>30.26</v>
+        <v>30.7</v>
       </c>
       <c r="F107" t="n">
-        <v>2286.9133</v>
+        <v>2800</v>
       </c>
       <c r="G107" t="n">
-        <v>-5769.156892215354</v>
+        <v>206881.6666517611</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4414,8 +4872,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4426,22 +4890,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>30.26</v>
+        <v>30.42</v>
       </c>
       <c r="C108" t="n">
-        <v>30.26</v>
+        <v>30.42</v>
       </c>
       <c r="D108" t="n">
-        <v>30.26</v>
+        <v>30.42</v>
       </c>
       <c r="E108" t="n">
-        <v>30.26</v>
+        <v>30.42</v>
       </c>
       <c r="F108" t="n">
-        <v>14482.3156</v>
+        <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>-5769.156892215354</v>
+        <v>206781.6666517611</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4450,8 +4914,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4462,22 +4932,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>30.4</v>
+        <v>30.72</v>
       </c>
       <c r="C109" t="n">
-        <v>30.4</v>
+        <v>30.72</v>
       </c>
       <c r="D109" t="n">
-        <v>30.4</v>
+        <v>30.72</v>
       </c>
       <c r="E109" t="n">
-        <v>30.4</v>
+        <v>30.72</v>
       </c>
       <c r="F109" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G109" t="n">
-        <v>4230.843107784646</v>
+        <v>206881.6666517611</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4486,8 +4956,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4498,34 +4974,40 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>30.56</v>
+        <v>30.48</v>
       </c>
       <c r="C110" t="n">
-        <v>30.56</v>
+        <v>30.48</v>
       </c>
       <c r="D110" t="n">
-        <v>30.56</v>
+        <v>30.48</v>
       </c>
       <c r="E110" t="n">
-        <v>30.56</v>
+        <v>30.48</v>
       </c>
       <c r="F110" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G110" t="n">
-        <v>4330.843107784646</v>
+        <v>205881.6666517611</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M110" t="n">
-        <v>1</v>
+        <v>1.014397993311037</v>
       </c>
       <c r="N110" t="inlineStr"/>
     </row>
@@ -4534,28 +5016,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>30.58</v>
+        <v>30.62</v>
       </c>
       <c r="C111" t="n">
-        <v>30.58</v>
+        <v>30.62</v>
       </c>
       <c r="D111" t="n">
-        <v>30.58</v>
+        <v>30.62</v>
       </c>
       <c r="E111" t="n">
-        <v>30.58</v>
+        <v>30.62</v>
       </c>
       <c r="F111" t="n">
         <v>100</v>
       </c>
       <c r="G111" t="n">
-        <v>4430.843107784646</v>
+        <v>205981.6666517611</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4570,22 +5052,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>30.29</v>
+        <v>30.63</v>
       </c>
       <c r="C112" t="n">
-        <v>30.46</v>
+        <v>30.63</v>
       </c>
       <c r="D112" t="n">
-        <v>30.57</v>
+        <v>30.63</v>
       </c>
       <c r="E112" t="n">
-        <v>30.27</v>
+        <v>30.63</v>
       </c>
       <c r="F112" t="n">
-        <v>5201.366690610637</v>
+        <v>33.00685602350637</v>
       </c>
       <c r="G112" t="n">
-        <v>-770.5235828259911</v>
+        <v>206014.6735077846</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4606,22 +5088,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>30.27</v>
+        <v>30.64</v>
       </c>
       <c r="C113" t="n">
-        <v>30.27</v>
+        <v>30.64</v>
       </c>
       <c r="D113" t="n">
-        <v>30.27</v>
+        <v>30.64</v>
       </c>
       <c r="E113" t="n">
-        <v>30.27</v>
+        <v>30.64</v>
       </c>
       <c r="F113" t="n">
-        <v>1369.7798</v>
+        <v>10146.9818</v>
       </c>
       <c r="G113" t="n">
-        <v>-2140.303382825991</v>
+        <v>216161.6553077846</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4642,28 +5124,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>30.47</v>
+        <v>30.36</v>
       </c>
       <c r="C114" t="n">
-        <v>30.47</v>
+        <v>30.58</v>
       </c>
       <c r="D114" t="n">
-        <v>30.47</v>
+        <v>30.58</v>
       </c>
       <c r="E114" t="n">
-        <v>30.47</v>
+        <v>30.35</v>
       </c>
       <c r="F114" t="n">
-        <v>100</v>
+        <v>197280.951</v>
       </c>
       <c r="G114" t="n">
-        <v>-2040.303382825991</v>
+        <v>18880.70430778465</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4678,22 +5160,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>30.32</v>
+        <v>30.63</v>
       </c>
       <c r="C115" t="n">
-        <v>30.32</v>
+        <v>30.63</v>
       </c>
       <c r="D115" t="n">
-        <v>30.32</v>
+        <v>30.63</v>
       </c>
       <c r="E115" t="n">
-        <v>30.32</v>
+        <v>30.63</v>
       </c>
       <c r="F115" t="n">
-        <v>1968.6647</v>
+        <v>100</v>
       </c>
       <c r="G115" t="n">
-        <v>-4008.968082825992</v>
+        <v>18980.70430778465</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4714,22 +5196,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>30.45</v>
+        <v>30.56</v>
       </c>
       <c r="C116" t="n">
-        <v>30.33</v>
+        <v>30.56</v>
       </c>
       <c r="D116" t="n">
-        <v>30.45</v>
+        <v>30.56</v>
       </c>
       <c r="E116" t="n">
-        <v>30.33</v>
+        <v>30.56</v>
       </c>
       <c r="F116" t="n">
-        <v>785.3505</v>
+        <v>8102.6233</v>
       </c>
       <c r="G116" t="n">
-        <v>-3223.617582825992</v>
+        <v>10878.08100778465</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4750,22 +5232,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>30.39</v>
+        <v>30.56</v>
       </c>
       <c r="C117" t="n">
-        <v>30.39</v>
+        <v>30.56</v>
       </c>
       <c r="D117" t="n">
-        <v>30.39</v>
+        <v>30.56</v>
       </c>
       <c r="E117" t="n">
-        <v>30.39</v>
+        <v>30.56</v>
       </c>
       <c r="F117" t="n">
-        <v>100</v>
+        <v>160.5533</v>
       </c>
       <c r="G117" t="n">
-        <v>-3123.617582825992</v>
+        <v>10878.08100778465</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4786,28 +5268,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>30.33</v>
+        <v>30.57</v>
       </c>
       <c r="C118" t="n">
-        <v>30.33</v>
+        <v>30.56</v>
       </c>
       <c r="D118" t="n">
-        <v>30.33</v>
+        <v>30.57</v>
       </c>
       <c r="E118" t="n">
-        <v>30.33</v>
+        <v>30.56</v>
       </c>
       <c r="F118" t="n">
-        <v>8.662000000000001</v>
+        <v>587.151</v>
       </c>
       <c r="G118" t="n">
-        <v>-3132.279582825991</v>
+        <v>10878.08100778465</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4822,28 +5304,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>30.26</v>
+        <v>30.58</v>
       </c>
       <c r="C119" t="n">
-        <v>30.06</v>
+        <v>30.58</v>
       </c>
       <c r="D119" t="n">
-        <v>30.26</v>
+        <v>30.58</v>
       </c>
       <c r="E119" t="n">
-        <v>30.06</v>
+        <v>30.58</v>
       </c>
       <c r="F119" t="n">
-        <v>15190.36</v>
+        <v>100</v>
       </c>
       <c r="G119" t="n">
-        <v>-18322.63958282599</v>
+        <v>10978.08100778465</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4858,22 +5340,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>30.26</v>
+        <v>30.56</v>
       </c>
       <c r="C120" t="n">
-        <v>30.26</v>
+        <v>30.56</v>
       </c>
       <c r="D120" t="n">
-        <v>30.26</v>
+        <v>30.56</v>
       </c>
       <c r="E120" t="n">
-        <v>30.26</v>
+        <v>30.56</v>
       </c>
       <c r="F120" t="n">
-        <v>100</v>
+        <v>1009.2322</v>
       </c>
       <c r="G120" t="n">
-        <v>-18222.63958282599</v>
+        <v>9968.848807784647</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4894,22 +5376,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>30.13</v>
+        <v>30.34</v>
       </c>
       <c r="C121" t="n">
-        <v>30.29</v>
+        <v>30.55</v>
       </c>
       <c r="D121" t="n">
-        <v>30.29</v>
+        <v>30.55</v>
       </c>
       <c r="E121" t="n">
-        <v>30.13</v>
+        <v>30.34</v>
       </c>
       <c r="F121" t="n">
-        <v>125</v>
+        <v>5842.9242</v>
       </c>
       <c r="G121" t="n">
-        <v>-18097.63958282599</v>
+        <v>4125.924607784646</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4930,22 +5412,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>30.28</v>
+        <v>30.37</v>
       </c>
       <c r="C122" t="n">
-        <v>30.28</v>
+        <v>30.37</v>
       </c>
       <c r="D122" t="n">
-        <v>30.28</v>
+        <v>30.37</v>
       </c>
       <c r="E122" t="n">
-        <v>30.28</v>
+        <v>30.37</v>
       </c>
       <c r="F122" t="n">
-        <v>17</v>
+        <v>286.1242</v>
       </c>
       <c r="G122" t="n">
-        <v>-18114.63958282599</v>
+        <v>3839.800407784646</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4966,22 +5448,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>30.19</v>
+        <v>30.47</v>
       </c>
       <c r="C123" t="n">
-        <v>30.19</v>
+        <v>30.47</v>
       </c>
       <c r="D123" t="n">
-        <v>30.19</v>
+        <v>30.47</v>
       </c>
       <c r="E123" t="n">
-        <v>30.19</v>
+        <v>30.47</v>
       </c>
       <c r="F123" t="n">
-        <v>720.7675</v>
+        <v>500</v>
       </c>
       <c r="G123" t="n">
-        <v>-18835.40708282599</v>
+        <v>4339.800407784646</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5002,22 +5484,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>30.13</v>
+        <v>30.53</v>
       </c>
       <c r="C124" t="n">
-        <v>30.13</v>
+        <v>30.53</v>
       </c>
       <c r="D124" t="n">
-        <v>30.13</v>
+        <v>30.53</v>
       </c>
       <c r="E124" t="n">
-        <v>30.13</v>
+        <v>30.53</v>
       </c>
       <c r="F124" t="n">
-        <v>22690.455</v>
+        <v>100</v>
       </c>
       <c r="G124" t="n">
-        <v>-41525.862082826</v>
+        <v>4439.800407784646</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5038,22 +5520,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>30.27</v>
+        <v>30.55</v>
       </c>
       <c r="C125" t="n">
-        <v>30.27</v>
+        <v>30.55</v>
       </c>
       <c r="D125" t="n">
-        <v>30.27</v>
+        <v>30.55</v>
       </c>
       <c r="E125" t="n">
-        <v>30.27</v>
+        <v>30.55</v>
       </c>
       <c r="F125" t="n">
         <v>100</v>
       </c>
       <c r="G125" t="n">
-        <v>-41425.862082826</v>
+        <v>4539.800407784646</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5074,22 +5556,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>30.3</v>
+        <v>30.55</v>
       </c>
       <c r="C126" t="n">
-        <v>30.3</v>
+        <v>30.55</v>
       </c>
       <c r="D126" t="n">
-        <v>30.3</v>
+        <v>30.55</v>
       </c>
       <c r="E126" t="n">
-        <v>30.3</v>
+        <v>30.55</v>
       </c>
       <c r="F126" t="n">
-        <v>100</v>
+        <v>17800</v>
       </c>
       <c r="G126" t="n">
-        <v>-41325.862082826</v>
+        <v>4539.800407784646</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5110,22 +5592,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>30.08</v>
+        <v>30.37</v>
       </c>
       <c r="C127" t="n">
-        <v>30.08</v>
+        <v>30.37</v>
       </c>
       <c r="D127" t="n">
-        <v>30.08</v>
+        <v>30.37</v>
       </c>
       <c r="E127" t="n">
-        <v>30.08</v>
+        <v>30.37</v>
       </c>
       <c r="F127" t="n">
-        <v>783.6331</v>
+        <v>2916.2656</v>
       </c>
       <c r="G127" t="n">
-        <v>-42109.49518282599</v>
+        <v>1623.534807784646</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5146,22 +5628,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>30.26</v>
+        <v>30.43</v>
       </c>
       <c r="C128" t="n">
-        <v>30.26</v>
+        <v>30.43</v>
       </c>
       <c r="D128" t="n">
-        <v>30.26</v>
+        <v>30.43</v>
       </c>
       <c r="E128" t="n">
-        <v>30.26</v>
+        <v>30.43</v>
       </c>
       <c r="F128" t="n">
         <v>100</v>
       </c>
       <c r="G128" t="n">
-        <v>-42009.49518282599</v>
+        <v>1723.534807784646</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5177,6 +5659,1050 @@
       </c>
       <c r="N128" t="inlineStr"/>
     </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>30.36</v>
+      </c>
+      <c r="C129" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="D129" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="E129" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="F129" t="n">
+        <v>466.568</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1256.966807784646</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="C130" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="D130" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="E130" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="F130" t="n">
+        <v>996.7444</v>
+      </c>
+      <c r="G130" t="n">
+        <v>260.2224077846461</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="C131" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="D131" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="E131" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="F131" t="n">
+        <v>100</v>
+      </c>
+      <c r="G131" t="n">
+        <v>360.2224077846461</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C132" t="n">
+        <v>30.45</v>
+      </c>
+      <c r="D132" t="n">
+        <v>30.45</v>
+      </c>
+      <c r="E132" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2562.4876</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-2202.265192215354</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C133" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E133" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1279.9784</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-3482.243592215354</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C134" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E134" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F134" t="n">
+        <v>96960.10060000001</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-3482.243592215354</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C135" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D135" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E135" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>45507.1161</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-3482.243592215354</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="C136" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="D136" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="E136" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2286.9133</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-5769.156892215354</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="C137" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="D137" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="E137" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="F137" t="n">
+        <v>14482.3156</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-5769.156892215354</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C138" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D138" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E138" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G138" t="n">
+        <v>4230.843107784646</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>30.56</v>
+      </c>
+      <c r="C139" t="n">
+        <v>30.56</v>
+      </c>
+      <c r="D139" t="n">
+        <v>30.56</v>
+      </c>
+      <c r="E139" t="n">
+        <v>30.56</v>
+      </c>
+      <c r="F139" t="n">
+        <v>100</v>
+      </c>
+      <c r="G139" t="n">
+        <v>4330.843107784646</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>30.58</v>
+      </c>
+      <c r="C140" t="n">
+        <v>30.58</v>
+      </c>
+      <c r="D140" t="n">
+        <v>30.58</v>
+      </c>
+      <c r="E140" t="n">
+        <v>30.58</v>
+      </c>
+      <c r="F140" t="n">
+        <v>100</v>
+      </c>
+      <c r="G140" t="n">
+        <v>4430.843107784646</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="C141" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="D141" t="n">
+        <v>30.57</v>
+      </c>
+      <c r="E141" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5201.366690610637</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-770.5235828259911</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="C142" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="D142" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="E142" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1369.7798</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-2140.303382825991</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>30.47</v>
+      </c>
+      <c r="C143" t="n">
+        <v>30.47</v>
+      </c>
+      <c r="D143" t="n">
+        <v>30.47</v>
+      </c>
+      <c r="E143" t="n">
+        <v>30.47</v>
+      </c>
+      <c r="F143" t="n">
+        <v>100</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-2040.303382825991</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>30.32</v>
+      </c>
+      <c r="C144" t="n">
+        <v>30.32</v>
+      </c>
+      <c r="D144" t="n">
+        <v>30.32</v>
+      </c>
+      <c r="E144" t="n">
+        <v>30.32</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1968.6647</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-4008.968082825992</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>30.45</v>
+      </c>
+      <c r="C145" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="D145" t="n">
+        <v>30.45</v>
+      </c>
+      <c r="E145" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="F145" t="n">
+        <v>785.3505</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-3223.617582825992</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="C146" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="D146" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="E146" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="F146" t="n">
+        <v>100</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-3123.617582825992</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="C147" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="D147" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="E147" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="F147" t="n">
+        <v>8.662000000000001</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-3132.279582825991</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="C148" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="D148" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="E148" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="F148" t="n">
+        <v>15190.36</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-18322.63958282599</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="C149" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="D149" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="E149" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="F149" t="n">
+        <v>100</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-18222.63958282599</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="C150" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="D150" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="E150" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="F150" t="n">
+        <v>125</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-18097.63958282599</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>30.28</v>
+      </c>
+      <c r="C151" t="n">
+        <v>30.28</v>
+      </c>
+      <c r="D151" t="n">
+        <v>30.28</v>
+      </c>
+      <c r="E151" t="n">
+        <v>30.28</v>
+      </c>
+      <c r="F151" t="n">
+        <v>17</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-18114.63958282599</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="C152" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="D152" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="E152" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="F152" t="n">
+        <v>720.7675</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-18835.40708282599</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="C153" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="D153" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="E153" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="F153" t="n">
+        <v>22690.455</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-41525.862082826</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="C154" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="D154" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="E154" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="F154" t="n">
+        <v>100</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-41425.862082826</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D155" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E155" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>100</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-41325.862082826</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="C156" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="D156" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="E156" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="F156" t="n">
+        <v>783.6331</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-42109.49518282599</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="C157" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="D157" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="E157" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="F157" t="n">
+        <v>100</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-42009.49518282599</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-15 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-15 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>48740.36525176118</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>48540.36525176118</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>29.9</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>46717.41085176118</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>46817.41085176118</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="J5" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>102817.4108517612</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="J6" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>46617.41085176117</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J7" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +688,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -684,9 +726,17 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="J9" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +768,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +804,17 @@
         <v>30437.38215176118</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +843,17 @@
         <v>30453.67255176118</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +882,17 @@
         <v>29953.67255176118</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +924,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +960,17 @@
         <v>167605.2079517612</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +999,17 @@
         <v>167605.2079517612</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1038,17 @@
         <v>192444.5485517612</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1080,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1119,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1158,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1197,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1236,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1275,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1314,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1353,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1392,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1431,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1470,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1509,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1548,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1587,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1626,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1665,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1704,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1743,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1782,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1821,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1860,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1899,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1938,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1977,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2016,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2055,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2094,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2133,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2172,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2211,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,15 +2247,17 @@
         <v>-76469.25854823885</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>30</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+        <v>29.9</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,17 +2286,15 @@
         <v>-56674.97834823885</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2047,13 +2325,11 @@
         <v>-62779.34984823885</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>30.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2092,7 +2368,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2131,7 +2407,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2170,7 +2446,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2205,13 +2481,11 @@
         <v>-69393.98364823885</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2250,7 +2524,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2285,13 +2559,11 @@
         <v>-69294.21984823885</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>30.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2330,7 +2602,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2369,7 +2641,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2408,7 +2680,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2447,7 +2719,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2486,7 +2758,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2525,7 +2797,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2564,7 +2836,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2603,7 +2875,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2642,7 +2914,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2681,7 +2953,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2720,7 +2992,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2759,7 +3031,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2798,7 +3070,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2837,7 +3109,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2876,7 +3148,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2915,7 +3187,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2954,7 +3226,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2993,7 +3265,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3032,7 +3304,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3071,7 +3343,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3110,7 +3382,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3149,7 +3421,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3188,7 +3460,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3227,7 +3499,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3266,7 +3538,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3305,7 +3577,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3344,7 +3616,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3383,7 +3655,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3422,7 +3694,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3461,7 +3733,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3496,19 +3768,19 @@
         <v>123759.0574517611</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>0.9933333333333333</v>
+        <v>1</v>
       </c>
       <c r="M87" t="inlineStr"/>
     </row>
@@ -3538,8 +3810,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3571,8 +3849,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3601,11 +3885,17 @@
         <v>120959.0574517611</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3637,8 +3927,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3670,8 +3966,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3703,8 +4005,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3736,8 +4044,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3769,8 +4083,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3802,8 +4122,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3832,11 +4158,17 @@
         <v>121530.7319517611</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3868,8 +4200,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3901,8 +4239,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3934,8 +4278,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3967,8 +4317,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4000,8 +4356,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4033,8 +4395,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4066,8 +4434,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4099,8 +4473,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4132,8 +4512,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4165,8 +4551,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4198,8 +4590,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4231,8 +4629,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4264,8 +4668,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4297,8 +4707,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4330,8 +4746,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4363,8 +4785,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4396,8 +4824,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4429,8 +4863,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4462,8 +4902,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4495,8 +4941,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4525,11 +4977,17 @@
         <v>10878.08100778465</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4561,8 +5019,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4591,11 +5055,17 @@
         <v>9968.848807784647</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4627,8 +5097,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4657,13 +5133,19 @@
         <v>3839.800407784646</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L122" t="n">
-        <v>1</v>
+        <v>1.010719063545151</v>
       </c>
       <c r="M122" t="inlineStr"/>
     </row>
@@ -4690,7 +5172,7 @@
         <v>4339.800407784646</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4723,7 +5205,7 @@
         <v>4439.800407784646</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4756,7 +5238,7 @@
         <v>4539.800407784646</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4789,7 +5271,7 @@
         <v>4539.800407784646</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4822,7 +5304,7 @@
         <v>1623.534807784646</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4855,7 +5337,7 @@
         <v>1723.534807784646</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4888,7 +5370,7 @@
         <v>1256.966807784646</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4921,7 +5403,7 @@
         <v>260.2224077846461</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4954,7 +5436,7 @@
         <v>360.2224077846461</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4987,7 +5469,7 @@
         <v>-2202.265192215354</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5020,7 +5502,7 @@
         <v>-3482.243592215354</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5053,7 +5535,7 @@
         <v>-3482.243592215354</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5086,7 +5568,7 @@
         <v>-3482.243592215354</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5119,7 +5601,7 @@
         <v>-5769.156892215354</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5152,7 +5634,7 @@
         <v>-5769.156892215354</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5185,7 +5667,7 @@
         <v>4230.843107784646</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5614,7 +6096,7 @@
         <v>-18114.63958282599</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5647,7 +6129,7 @@
         <v>-18835.40708282599</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5680,7 +6162,7 @@
         <v>-41525.862082826</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5713,7 +6195,7 @@
         <v>-41425.862082826</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5746,7 +6228,7 @@
         <v>-41325.862082826</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5779,7 +6261,7 @@
         <v>-42109.49518282599</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5812,7 +6294,7 @@
         <v>-42009.49518282599</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5823,6 +6305,6 @@
       <c r="M157" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-15 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>48740.36525176118</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -603,11 +603,9 @@
         <v>102817.4108517612</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>29.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
         <v>29.9</v>
       </c>
@@ -644,11 +642,9 @@
         <v>46617.41085176117</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>29.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>29.9</v>
       </c>
@@ -724,11 +720,9 @@
         <v>30237.38215176118</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>29.88</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>29.9</v>
       </c>
@@ -765,7 +759,7 @@
         <v>30337.38215176118</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
@@ -804,7 +798,7 @@
         <v>30437.38215176118</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
@@ -843,7 +837,7 @@
         <v>30453.67255176118</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
@@ -2052,7 +2046,7 @@
         <v>-74927.54874823886</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
@@ -2060,11 +2054,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>1.002357859531773</v>
       </c>
       <c r="M43" t="inlineStr"/>
     </row>
@@ -2091,17 +2085,11 @@
         <v>-76469.25854823885</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2130,17 +2118,11 @@
         <v>-76469.25854823885</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2169,17 +2151,11 @@
         <v>-76469.25854823885</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2211,14 +2187,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2250,14 +2220,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2289,14 +2253,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2328,14 +2286,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2367,14 +2319,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2406,14 +2352,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2445,14 +2385,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2484,14 +2418,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2523,14 +2451,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2559,17 +2481,11 @@
         <v>-69294.21984823885</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2601,14 +2517,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2640,14 +2550,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2679,14 +2583,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2718,14 +2616,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2757,14 +2649,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2796,14 +2682,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2835,14 +2715,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2874,14 +2748,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2913,14 +2781,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2952,14 +2814,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2991,14 +2847,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3030,14 +2880,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3069,14 +2913,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3105,17 +2943,11 @@
         <v>54929.77965176116</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3144,17 +2976,11 @@
         <v>54929.77965176116</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3183,17 +3009,11 @@
         <v>138981.1077517612</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3222,17 +3042,11 @@
         <v>139081.1077517612</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3261,17 +3075,11 @@
         <v>139181.1077517612</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3303,14 +3111,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3342,14 +3144,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3381,14 +3177,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3420,14 +3210,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3459,14 +3243,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3498,14 +3276,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3537,14 +3309,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3576,14 +3342,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3615,14 +3375,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3654,14 +3408,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3693,14 +3441,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3732,14 +3474,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3771,14 +3507,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3810,14 +3540,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3849,14 +3573,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3888,14 +3606,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3927,14 +3639,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3966,14 +3672,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4005,14 +3705,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4044,14 +3738,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4083,14 +3771,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4122,14 +3804,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4161,14 +3837,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4200,14 +3870,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4239,14 +3903,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4278,14 +3936,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4317,14 +3969,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4356,14 +4002,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4395,14 +4035,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4434,14 +4068,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4473,14 +4101,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4512,14 +4134,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4551,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4590,14 +4200,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4629,14 +4233,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4668,14 +4266,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4707,14 +4299,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4746,14 +4332,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4785,14 +4365,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4824,14 +4398,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4863,14 +4431,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4902,14 +4464,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4941,14 +4497,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4980,14 +4530,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5019,14 +4563,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5058,14 +4596,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5097,14 +4629,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5133,19 +4659,13 @@
         <v>3839.800407784646</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
-        <v>1.010719063545151</v>
+        <v>1</v>
       </c>
       <c r="M122" t="inlineStr"/>
     </row>
@@ -5205,7 +4725,7 @@
         <v>4439.800407784646</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5238,7 +4758,7 @@
         <v>4539.800407784646</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5304,7 +4824,7 @@
         <v>1623.534807784646</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5337,7 +4857,7 @@
         <v>1723.534807784646</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5370,7 +4890,7 @@
         <v>1256.966807784646</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5403,7 +4923,7 @@
         <v>260.2224077846461</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5436,7 +4956,7 @@
         <v>360.2224077846461</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5469,7 +4989,7 @@
         <v>-2202.265192215354</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5502,7 +5022,7 @@
         <v>-3482.243592215354</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5535,7 +5055,7 @@
         <v>-3482.243592215354</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5568,7 +5088,7 @@
         <v>-3482.243592215354</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5601,7 +5121,7 @@
         <v>-5769.156892215354</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5634,7 +5154,7 @@
         <v>-5769.156892215354</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5667,7 +5187,7 @@
         <v>4230.843107784646</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -6096,7 +5616,7 @@
         <v>-18114.63958282599</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6129,7 +5649,7 @@
         <v>-18835.40708282599</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6162,7 +5682,7 @@
         <v>-41525.862082826</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6195,7 +5715,7 @@
         <v>-41425.862082826</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6228,7 +5748,7 @@
         <v>-41325.862082826</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6261,7 +5781,7 @@
         <v>-42109.49518282599</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6294,7 +5814,7 @@
         <v>-42009.49518282599</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6305,6 +5825,6 @@
       <c r="M157" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-15 BackTest LAMB.xlsx
@@ -484,14 +484,10 @@
         <v>48540.36525176118</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>29.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>46717.41085176118</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>29.87</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -568,13 +556,9 @@
         <v>29.64</v>
       </c>
       <c r="J5" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>29.64</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,15 +587,17 @@
         <v>102817.4108517612</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>29.88</v>
+      </c>
       <c r="J6" t="n">
-        <v>29.9</v>
+        <v>29.64</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -642,15 +628,17 @@
         <v>46617.41085176117</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>29.98</v>
+      </c>
       <c r="J7" t="n">
-        <v>29.9</v>
+        <v>29.64</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -681,17 +669,15 @@
         <v>28454.32625176118</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>29.92</v>
+      </c>
       <c r="J8" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>29.92</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -720,15 +706,17 @@
         <v>30237.38215176118</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>29.88</v>
+      </c>
       <c r="J9" t="n">
-        <v>29.9</v>
+        <v>29.92</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -759,15 +747,17 @@
         <v>30337.38215176118</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>29.94</v>
+      </c>
       <c r="J10" t="n">
-        <v>29.9</v>
+        <v>29.92</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -798,17 +788,11 @@
         <v>30437.38215176118</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -837,17 +821,11 @@
         <v>30453.67255176118</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -879,14 +857,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -918,14 +890,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -957,14 +923,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -996,14 +956,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1035,14 +989,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1074,14 +1022,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1113,14 +1055,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1152,14 +1088,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1191,14 +1121,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1230,14 +1154,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1269,14 +1187,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1308,14 +1220,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1347,14 +1253,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1386,14 +1286,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1425,14 +1319,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1464,14 +1352,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1503,14 +1385,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1542,14 +1418,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1581,14 +1451,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1620,14 +1484,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1659,14 +1517,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1698,14 +1550,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1737,14 +1583,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1776,14 +1616,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1815,14 +1649,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1854,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1893,14 +1715,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1932,14 +1748,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1971,14 +1781,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2010,14 +1814,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2046,19 +1844,13 @@
         <v>-74927.54874823886</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>1.002357859531773</v>
+        <v>1</v>
       </c>
       <c r="M43" t="inlineStr"/>
     </row>
@@ -2085,7 +1877,7 @@
         <v>-76469.25854823885</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2118,7 +1910,7 @@
         <v>-76469.25854823885</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2151,7 +1943,7 @@
         <v>-76469.25854823885</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2481,7 +2273,7 @@
         <v>-69294.21984823885</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2943,7 +2735,7 @@
         <v>54929.77965176116</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2976,7 +2768,7 @@
         <v>54929.77965176116</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3009,7 +2801,7 @@
         <v>138981.1077517612</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3042,7 +2834,7 @@
         <v>139081.1077517612</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3075,7 +2867,7 @@
         <v>139181.1077517612</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -4197,7 +3989,7 @@
         <v>206781.6666517611</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4263,7 +4055,7 @@
         <v>205881.6666517611</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4296,7 +4088,7 @@
         <v>205981.6666517611</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4329,7 +4121,7 @@
         <v>206014.6735077846</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4362,7 +4154,7 @@
         <v>216161.6553077846</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4395,7 +4187,7 @@
         <v>18880.70430778465</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4461,7 +4253,7 @@
         <v>10878.08100778465</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>

--- a/BackTest/2020-01-15 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-15 BackTest LAMB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:L157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>200</v>
       </c>
       <c r="G2" t="n">
-        <v>48740.36525176118</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>200</v>
       </c>
       <c r="G3" t="n">
-        <v>48540.36525176118</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1822.9544</v>
       </c>
       <c r="G4" t="n">
-        <v>46717.41085176118</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,22 +533,15 @@
         <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>46817.41085176118</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>29.64</v>
-      </c>
-      <c r="J5" t="n">
-        <v>29.64</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -584,26 +563,15 @@
         <v>56000</v>
       </c>
       <c r="G6" t="n">
-        <v>102817.4108517612</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="J6" t="n">
-        <v>29.64</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -625,26 +593,15 @@
         <v>56200</v>
       </c>
       <c r="G7" t="n">
-        <v>46617.41085176117</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>29.98</v>
-      </c>
-      <c r="J7" t="n">
-        <v>29.64</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -666,22 +623,15 @@
         <v>18163.0846</v>
       </c>
       <c r="G8" t="n">
-        <v>28454.32625176118</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>29.92</v>
-      </c>
-      <c r="J8" t="n">
-        <v>29.92</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -703,26 +653,15 @@
         <v>1783.0559</v>
       </c>
       <c r="G9" t="n">
-        <v>30237.38215176118</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="J9" t="n">
-        <v>29.92</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,26 +683,15 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>30337.38215176118</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>29.94</v>
-      </c>
-      <c r="J10" t="n">
-        <v>29.92</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -785,18 +713,15 @@
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>30437.38215176118</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,18 +743,15 @@
         <v>16.2904</v>
       </c>
       <c r="G12" t="n">
-        <v>30453.67255176118</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -851,18 +773,15 @@
         <v>500</v>
       </c>
       <c r="G13" t="n">
-        <v>29953.67255176118</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -884,18 +803,15 @@
         <v>137651.5354</v>
       </c>
       <c r="G14" t="n">
-        <v>167605.2079517612</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,18 +833,15 @@
         <v>3816.44</v>
       </c>
       <c r="G15" t="n">
-        <v>167605.2079517612</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -950,18 +863,15 @@
         <v>178890</v>
       </c>
       <c r="G16" t="n">
-        <v>167605.2079517612</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -983,18 +893,15 @@
         <v>24839.3406</v>
       </c>
       <c r="G17" t="n">
-        <v>192444.5485517612</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1016,18 +923,19 @@
         <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>192544.5485517612</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>29.98</v>
+      </c>
+      <c r="I18" t="n">
+        <v>29.98</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1049,18 +957,21 @@
         <v>16.8953</v>
       </c>
       <c r="G19" t="n">
-        <v>192527.6532517612</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1082,18 +993,21 @@
         <v>135.4346</v>
       </c>
       <c r="G20" t="n">
-        <v>192392.2186517612</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1115,18 +1029,21 @@
         <v>183.03</v>
       </c>
       <c r="G21" t="n">
-        <v>192209.1886517612</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,18 +1065,21 @@
         <v>41434.5234</v>
       </c>
       <c r="G22" t="n">
-        <v>150774.6652517612</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1181,18 +1101,23 @@
         <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>150874.6652517612</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>29.67</v>
+      </c>
+      <c r="I23" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1214,18 +1139,23 @@
         <v>2794.1765</v>
       </c>
       <c r="G24" t="n">
-        <v>148080.4887517611</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>30.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1247,18 +1177,21 @@
         <v>13455.9415</v>
       </c>
       <c r="G25" t="n">
-        <v>161536.4302517612</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1280,18 +1213,21 @@
         <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>161636.4302517612</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1313,18 +1249,21 @@
         <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>161736.4302517612</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1346,18 +1285,21 @@
         <v>1160.8364</v>
       </c>
       <c r="G28" t="n">
-        <v>161736.4302517612</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1379,18 +1321,21 @@
         <v>99.12260000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>161637.3076517612</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1412,18 +1357,21 @@
         <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>161737.3076517612</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1445,18 +1393,21 @@
         <v>39800</v>
       </c>
       <c r="G31" t="n">
-        <v>201537.3076517612</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1478,18 +1429,21 @@
         <v>10091.9561</v>
       </c>
       <c r="G32" t="n">
-        <v>191445.3515517612</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1511,18 +1465,21 @@
         <v>331.8363</v>
       </c>
       <c r="G33" t="n">
-        <v>191445.3515517612</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1544,18 +1501,21 @@
         <v>1160.8364</v>
       </c>
       <c r="G34" t="n">
-        <v>190284.5151517612</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1577,18 +1537,21 @@
         <v>16.7998</v>
       </c>
       <c r="G35" t="n">
-        <v>190301.3149517612</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1610,18 +1573,21 @@
         <v>56880.5883</v>
       </c>
       <c r="G36" t="n">
-        <v>133420.7266517612</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1643,18 +1609,21 @@
         <v>19175.142</v>
       </c>
       <c r="G37" t="n">
-        <v>133420.7266517612</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1676,18 +1645,21 @@
         <v>13818.7068</v>
       </c>
       <c r="G38" t="n">
-        <v>133420.7266517612</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1709,18 +1681,21 @@
         <v>16746.4856</v>
       </c>
       <c r="G39" t="n">
-        <v>133420.7266517612</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1742,18 +1717,21 @@
         <v>98.7167</v>
       </c>
       <c r="G40" t="n">
-        <v>133519.4433517611</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1775,18 +1753,21 @@
         <v>6993.2764</v>
       </c>
       <c r="G41" t="n">
-        <v>140512.7197517611</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1808,18 +1789,21 @@
         <v>214881.9185</v>
       </c>
       <c r="G42" t="n">
-        <v>-74369.19874823885</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1841,18 +1825,21 @@
         <v>558.35</v>
       </c>
       <c r="G43" t="n">
-        <v>-74927.54874823886</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1874,18 +1861,21 @@
         <v>1541.7098</v>
       </c>
       <c r="G44" t="n">
-        <v>-76469.25854823885</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1907,18 +1897,21 @@
         <v>1000</v>
       </c>
       <c r="G45" t="n">
-        <v>-76469.25854823885</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1940,18 +1933,21 @@
         <v>8087.8064</v>
       </c>
       <c r="G46" t="n">
-        <v>-76469.25854823885</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1973,18 +1969,21 @@
         <v>10650.8696</v>
       </c>
       <c r="G47" t="n">
-        <v>-76469.25854823885</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2006,18 +2005,21 @@
         <v>3996.7688</v>
       </c>
       <c r="G48" t="n">
-        <v>-76469.25854823885</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2039,18 +2041,21 @@
         <v>19794.2802</v>
       </c>
       <c r="G49" t="n">
-        <v>-56674.97834823885</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2072,18 +2077,21 @@
         <v>6104.3715</v>
       </c>
       <c r="G50" t="n">
-        <v>-62779.34984823885</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2105,18 +2113,21 @@
         <v>30824.3377</v>
       </c>
       <c r="G51" t="n">
-        <v>-62779.34984823885</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2138,18 +2149,21 @@
         <v>3600</v>
       </c>
       <c r="G52" t="n">
-        <v>-59179.34984823885</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2171,18 +2185,21 @@
         <v>10214.6338</v>
       </c>
       <c r="G53" t="n">
-        <v>-69393.98364823885</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2204,18 +2221,21 @@
         <v>1260.78</v>
       </c>
       <c r="G54" t="n">
-        <v>-69393.98364823885</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2237,18 +2257,21 @@
         <v>100</v>
       </c>
       <c r="G55" t="n">
-        <v>-69293.98364823885</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2270,18 +2293,21 @@
         <v>0.2362</v>
       </c>
       <c r="G56" t="n">
-        <v>-69294.21984823885</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2303,18 +2329,21 @@
         <v>50467.208</v>
       </c>
       <c r="G57" t="n">
-        <v>-119761.4278482388</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2336,18 +2365,21 @@
         <v>4867.0744</v>
       </c>
       <c r="G58" t="n">
-        <v>-114894.3534482388</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2369,18 +2401,21 @@
         <v>3537.1124</v>
       </c>
       <c r="G59" t="n">
-        <v>-111357.2410482389</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2402,18 +2437,21 @@
         <v>31806</v>
       </c>
       <c r="G60" t="n">
-        <v>-111357.2410482389</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2435,18 +2473,21 @@
         <v>32306</v>
       </c>
       <c r="G61" t="n">
-        <v>-79051.24104823885</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2468,18 +2509,21 @@
         <v>48289.3514</v>
       </c>
       <c r="G62" t="n">
-        <v>-127340.5924482389</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2501,18 +2545,21 @@
         <v>180413.76</v>
       </c>
       <c r="G63" t="n">
-        <v>53073.16755176116</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2534,18 +2581,21 @@
         <v>22456.2637</v>
       </c>
       <c r="G64" t="n">
-        <v>53073.16755176116</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2567,18 +2617,21 @@
         <v>110774.8865</v>
       </c>
       <c r="G65" t="n">
-        <v>53073.16755176116</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2600,18 +2653,21 @@
         <v>17</v>
       </c>
       <c r="G66" t="n">
-        <v>53090.16755176116</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2633,18 +2689,21 @@
         <v>1054.1078</v>
       </c>
       <c r="G67" t="n">
-        <v>53090.16755176116</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2666,18 +2725,21 @@
         <v>100</v>
       </c>
       <c r="G68" t="n">
-        <v>53190.16755176116</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2699,18 +2761,21 @@
         <v>1639.6121</v>
       </c>
       <c r="G69" t="n">
-        <v>54829.77965176116</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2732,18 +2797,21 @@
         <v>100</v>
       </c>
       <c r="G70" t="n">
-        <v>54929.77965176116</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2765,18 +2833,21 @@
         <v>2054.7364</v>
       </c>
       <c r="G71" t="n">
-        <v>54929.77965176116</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2798,18 +2869,21 @@
         <v>84051.3281</v>
       </c>
       <c r="G72" t="n">
-        <v>138981.1077517612</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2831,18 +2905,21 @@
         <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>139081.1077517612</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2864,18 +2941,21 @@
         <v>100</v>
       </c>
       <c r="G74" t="n">
-        <v>139181.1077517612</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2897,18 +2977,21 @@
         <v>1996</v>
       </c>
       <c r="G75" t="n">
-        <v>137185.1077517612</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2930,18 +3013,21 @@
         <v>100</v>
       </c>
       <c r="G76" t="n">
-        <v>137285.1077517612</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2963,18 +3049,21 @@
         <v>100</v>
       </c>
       <c r="G77" t="n">
-        <v>137385.1077517612</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2996,18 +3085,21 @@
         <v>2000</v>
       </c>
       <c r="G78" t="n">
-        <v>135385.1077517612</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1.005340226817879</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3029,18 +3121,15 @@
         <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>135485.1077517612</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3062,18 +3151,15 @@
         <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>135585.1077517612</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3095,18 +3181,15 @@
         <v>3000</v>
       </c>
       <c r="G81" t="n">
-        <v>132585.1077517612</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3128,18 +3211,15 @@
         <v>3061.4183</v>
       </c>
       <c r="G82" t="n">
-        <v>129523.6894517612</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3161,18 +3241,15 @@
         <v>3831.0096</v>
       </c>
       <c r="G83" t="n">
-        <v>125692.6798517611</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3194,18 +3271,15 @@
         <v>100</v>
       </c>
       <c r="G84" t="n">
-        <v>125792.6798517611</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3227,18 +3301,15 @@
         <v>328.5573</v>
       </c>
       <c r="G85" t="n">
-        <v>125464.1225517611</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3260,18 +3331,15 @@
         <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>125564.1225517611</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3293,18 +3361,15 @@
         <v>1805.0651</v>
       </c>
       <c r="G87" t="n">
-        <v>123759.0574517611</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3326,18 +3391,15 @@
         <v>100</v>
       </c>
       <c r="G88" t="n">
-        <v>123859.0574517611</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3359,18 +3421,15 @@
         <v>100</v>
       </c>
       <c r="G89" t="n">
-        <v>123959.0574517611</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3392,18 +3451,15 @@
         <v>3000</v>
       </c>
       <c r="G90" t="n">
-        <v>120959.0574517611</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3425,18 +3481,15 @@
         <v>100</v>
       </c>
       <c r="G91" t="n">
-        <v>121059.0574517611</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3458,18 +3511,15 @@
         <v>200</v>
       </c>
       <c r="G92" t="n">
-        <v>121259.0574517611</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3491,18 +3541,15 @@
         <v>100</v>
       </c>
       <c r="G93" t="n">
-        <v>121359.0574517611</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3524,18 +3571,15 @@
         <v>1211.3006</v>
       </c>
       <c r="G94" t="n">
-        <v>120147.7568517611</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3557,18 +3601,15 @@
         <v>200</v>
       </c>
       <c r="G95" t="n">
-        <v>120347.7568517611</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3590,18 +3631,15 @@
         <v>100</v>
       </c>
       <c r="G96" t="n">
-        <v>120247.7568517611</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3623,18 +3661,15 @@
         <v>1282.9751</v>
       </c>
       <c r="G97" t="n">
-        <v>121530.7319517611</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3656,18 +3691,15 @@
         <v>3061.4183</v>
       </c>
       <c r="G98" t="n">
-        <v>118469.3136517611</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3689,18 +3721,15 @@
         <v>200</v>
       </c>
       <c r="G99" t="n">
-        <v>118669.3136517611</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3722,18 +3751,15 @@
         <v>100</v>
       </c>
       <c r="G100" t="n">
-        <v>118769.3136517611</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3755,18 +3781,15 @@
         <v>2736.2097</v>
       </c>
       <c r="G101" t="n">
-        <v>116033.1039517611</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3788,18 +3811,15 @@
         <v>100</v>
       </c>
       <c r="G102" t="n">
-        <v>116133.1039517611</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3821,18 +3841,15 @@
         <v>25500</v>
       </c>
       <c r="G103" t="n">
-        <v>141633.1039517611</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3854,18 +3871,15 @@
         <v>15528</v>
       </c>
       <c r="G104" t="n">
-        <v>157161.1039517611</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3887,18 +3901,15 @@
         <v>3507.6794</v>
       </c>
       <c r="G105" t="n">
-        <v>153653.4245517611</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3920,18 +3931,15 @@
         <v>56028.2421</v>
       </c>
       <c r="G106" t="n">
-        <v>209681.6666517611</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3953,18 +3961,15 @@
         <v>2800</v>
       </c>
       <c r="G107" t="n">
-        <v>206881.6666517611</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3986,18 +3991,15 @@
         <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>206781.6666517611</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4019,18 +4021,15 @@
         <v>100</v>
       </c>
       <c r="G109" t="n">
-        <v>206881.6666517611</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4052,18 +4051,15 @@
         <v>1000</v>
       </c>
       <c r="G110" t="n">
-        <v>205881.6666517611</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4085,18 +4081,15 @@
         <v>100</v>
       </c>
       <c r="G111" t="n">
-        <v>205981.6666517611</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4118,18 +4111,15 @@
         <v>33.00685602350637</v>
       </c>
       <c r="G112" t="n">
-        <v>206014.6735077846</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4151,18 +4141,15 @@
         <v>10146.9818</v>
       </c>
       <c r="G113" t="n">
-        <v>216161.6553077846</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4184,18 +4171,15 @@
         <v>197280.951</v>
       </c>
       <c r="G114" t="n">
-        <v>18880.70430778465</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4217,18 +4201,15 @@
         <v>100</v>
       </c>
       <c r="G115" t="n">
-        <v>18980.70430778465</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4250,18 +4231,15 @@
         <v>8102.6233</v>
       </c>
       <c r="G116" t="n">
-        <v>10878.08100778465</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4283,18 +4261,15 @@
         <v>160.5533</v>
       </c>
       <c r="G117" t="n">
-        <v>10878.08100778465</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4316,18 +4291,15 @@
         <v>587.151</v>
       </c>
       <c r="G118" t="n">
-        <v>10878.08100778465</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4349,18 +4321,15 @@
         <v>100</v>
       </c>
       <c r="G119" t="n">
-        <v>10978.08100778465</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4382,18 +4351,15 @@
         <v>1009.2322</v>
       </c>
       <c r="G120" t="n">
-        <v>9968.848807784647</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4415,18 +4381,15 @@
         <v>5842.9242</v>
       </c>
       <c r="G121" t="n">
-        <v>4125.924607784646</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4448,18 +4411,15 @@
         <v>286.1242</v>
       </c>
       <c r="G122" t="n">
-        <v>3839.800407784646</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4481,18 +4441,15 @@
         <v>500</v>
       </c>
       <c r="G123" t="n">
-        <v>4339.800407784646</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4514,18 +4471,15 @@
         <v>100</v>
       </c>
       <c r="G124" t="n">
-        <v>4439.800407784646</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4547,18 +4501,15 @@
         <v>100</v>
       </c>
       <c r="G125" t="n">
-        <v>4539.800407784646</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4580,18 +4531,15 @@
         <v>17800</v>
       </c>
       <c r="G126" t="n">
-        <v>4539.800407784646</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4613,18 +4561,15 @@
         <v>2916.2656</v>
       </c>
       <c r="G127" t="n">
-        <v>1623.534807784646</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4646,18 +4591,15 @@
         <v>100</v>
       </c>
       <c r="G128" t="n">
-        <v>1723.534807784646</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4679,18 +4621,15 @@
         <v>466.568</v>
       </c>
       <c r="G129" t="n">
-        <v>1256.966807784646</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4712,18 +4651,15 @@
         <v>996.7444</v>
       </c>
       <c r="G130" t="n">
-        <v>260.2224077846461</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4745,18 +4681,15 @@
         <v>100</v>
       </c>
       <c r="G131" t="n">
-        <v>360.2224077846461</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4778,18 +4711,15 @@
         <v>2562.4876</v>
       </c>
       <c r="G132" t="n">
-        <v>-2202.265192215354</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4811,18 +4741,15 @@
         <v>1279.9784</v>
       </c>
       <c r="G133" t="n">
-        <v>-3482.243592215354</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4844,18 +4771,15 @@
         <v>96960.10060000001</v>
       </c>
       <c r="G134" t="n">
-        <v>-3482.243592215354</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4877,18 +4801,15 @@
         <v>45507.1161</v>
       </c>
       <c r="G135" t="n">
-        <v>-3482.243592215354</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4910,18 +4831,15 @@
         <v>2286.9133</v>
       </c>
       <c r="G136" t="n">
-        <v>-5769.156892215354</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4943,18 +4861,15 @@
         <v>14482.3156</v>
       </c>
       <c r="G137" t="n">
-        <v>-5769.156892215354</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4976,18 +4891,15 @@
         <v>10000</v>
       </c>
       <c r="G138" t="n">
-        <v>4230.843107784646</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5009,18 +4921,15 @@
         <v>100</v>
       </c>
       <c r="G139" t="n">
-        <v>4330.843107784646</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5042,18 +4951,15 @@
         <v>100</v>
       </c>
       <c r="G140" t="n">
-        <v>4430.843107784646</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5075,18 +4981,15 @@
         <v>5201.366690610637</v>
       </c>
       <c r="G141" t="n">
-        <v>-770.5235828259911</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5108,18 +5011,15 @@
         <v>1369.7798</v>
       </c>
       <c r="G142" t="n">
-        <v>-2140.303382825991</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5141,18 +5041,15 @@
         <v>100</v>
       </c>
       <c r="G143" t="n">
-        <v>-2040.303382825991</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5174,18 +5071,15 @@
         <v>1968.6647</v>
       </c>
       <c r="G144" t="n">
-        <v>-4008.968082825992</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5207,18 +5101,15 @@
         <v>785.3505</v>
       </c>
       <c r="G145" t="n">
-        <v>-3223.617582825992</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5240,18 +5131,15 @@
         <v>100</v>
       </c>
       <c r="G146" t="n">
-        <v>-3123.617582825992</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5273,18 +5161,15 @@
         <v>8.662000000000001</v>
       </c>
       <c r="G147" t="n">
-        <v>-3132.279582825991</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5306,18 +5191,15 @@
         <v>15190.36</v>
       </c>
       <c r="G148" t="n">
-        <v>-18322.63958282599</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5339,18 +5221,15 @@
         <v>100</v>
       </c>
       <c r="G149" t="n">
-        <v>-18222.63958282599</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5372,18 +5251,15 @@
         <v>125</v>
       </c>
       <c r="G150" t="n">
-        <v>-18097.63958282599</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5405,18 +5281,15 @@
         <v>17</v>
       </c>
       <c r="G151" t="n">
-        <v>-18114.63958282599</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5438,18 +5311,15 @@
         <v>720.7675</v>
       </c>
       <c r="G152" t="n">
-        <v>-18835.40708282599</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5471,18 +5341,15 @@
         <v>22690.455</v>
       </c>
       <c r="G153" t="n">
-        <v>-41525.862082826</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5504,18 +5371,15 @@
         <v>100</v>
       </c>
       <c r="G154" t="n">
-        <v>-41425.862082826</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5537,18 +5401,15 @@
         <v>100</v>
       </c>
       <c r="G155" t="n">
-        <v>-41325.862082826</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5570,18 +5431,15 @@
         <v>783.6331</v>
       </c>
       <c r="G156" t="n">
-        <v>-42109.49518282599</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5603,18 +5461,15 @@
         <v>100</v>
       </c>
       <c r="G157" t="n">
-        <v>-42009.49518282599</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
